--- a/JM_ERP/초기 데이터/데이터 생성 수식.xlsx
+++ b/JM_ERP/초기 데이터/데이터 생성 수식.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\works\ERP\JumptoMoon\JM_ERP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\works\JumptoMoon\JM_ERP\초기 데이터\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F172A730-F5E0-4A10-86B7-9C7F8E0EA099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8F10FF-66A5-43F2-BBBF-1D8FBCF6B0D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17955" yWindow="5265" windowWidth="21600" windowHeight="11385" xr2:uid="{9290B461-2903-485C-8800-72ACE2CD4F4C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{9290B461-2903-485C-8800-72ACE2CD4F4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,12 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1193,10 +1199,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBEBA161-D1DD-43D2-919F-C200484FB83C}">
-  <dimension ref="A1:O101"/>
+  <dimension ref="A1:O201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O20" sqref="M1:O20"/>
+    <sheetView tabSelected="1" topLeftCell="A170" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1230,12 +1236,12 @@
         <v>5</v>
       </c>
       <c r="M1" t="str">
-        <f ca="1">INDEX($G$16:$G$18,MATCH(RAND(),$I$16:$I$18))</f>
-        <v>B001</v>
+        <f t="shared" ref="M1:M20" ca="1" si="0">INDEX($G$16:$G$18,MATCH(RAND(),$I$16:$I$18))</f>
+        <v>C001</v>
       </c>
       <c r="N1">
-        <f ca="1">VLOOKUP(M1,$G$16:$J$18,4)</f>
-        <v>2000</v>
+        <f t="shared" ref="N1:N20" ca="1" si="1">VLOOKUP(M1,$G$16:$J$18,4)</f>
+        <v>2500</v>
       </c>
       <c r="O1">
         <f ca="1">INDEX($G$21:$G$23,MATCH(RAND(),$I$21:$I$23))</f>
@@ -1245,333 +1251,333 @@
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f ca="1">INDEX($G$2:$G$7,MATCH(RAND(),$I$2:$I$7))</f>
-        <v>패션</v>
+        <v>리빙</v>
       </c>
       <c r="B2">
         <f ca="1">IF(A2=$G$2,RANDBETWEEN(1,10),IF(A2=$G$3,RANDBETWEEN(11,20),IF(A2=$G$4,RANDBETWEEN(21,30),IF(A2=$G$5,RANDBETWEEN(31,40),IF(A2=$G$6,RANDBETWEEN(41,50),IF(A2=$G$7,RANDBETWEEN(50,59)))))))</f>
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C2" t="str">
         <f ca="1">VLOOKUP($B2,product!$A$2:$E$60,5)</f>
-        <v>디스이즈네버댓</v>
+        <v>모던홈</v>
       </c>
       <c r="D2">
         <f ca="1">VLOOKUP($B2,product!$A$2:$E$60,3)</f>
-        <v>31500</v>
+        <v>700000</v>
       </c>
       <c r="E2">
         <f ca="1">INDEX($G$10:$G$12,MATCH(RAND(),$I$10:$I$12))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>
       </c>
       <c r="H2" s="1">
-        <v>0.2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
         <f ca="1">COUNTIF(A:A,G2)</f>
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="K2">
         <f ca="1">J2/$J$8</f>
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="M2" t="str">
-        <f ca="1">INDEX($G$16:$G$18,MATCH(RAND(),$I$16:$I$18))</f>
-        <v>C001</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>A001</v>
       </c>
       <c r="N2">
-        <f ca="1">VLOOKUP(M2,$G$16:$J$18,4)</f>
-        <v>2500</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2300</v>
       </c>
       <c r="O2">
-        <f t="shared" ref="O2:O20" ca="1" si="0">INDEX($G$21:$G$23,MATCH(RAND(),$I$21:$I$23))</f>
-        <v>30</v>
+        <f t="shared" ref="O2:O20" ca="1" si="2">INDEX($G$21:$G$23,MATCH(RAND(),$I$21:$I$23))</f>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
-        <f t="shared" ref="A3:A66" ca="1" si="1">INDEX($G$2:$G$7,MATCH(RAND(),$I$2:$I$7))</f>
-        <v>도서</v>
+        <f t="shared" ref="A3:A66" ca="1" si="3">INDEX($G$2:$G$7,MATCH(RAND(),$I$2:$I$7))</f>
+        <v>전자기기</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B50" ca="1" si="2">IF(A3=$G$2,RANDBETWEEN(1,10),IF(A3=$G$3,RANDBETWEEN(11,20),IF(A3=$G$4,RANDBETWEEN(21,30),IF(A3=$G$5,RANDBETWEEN(31,40),IF(A3=$G$6,RANDBETWEEN(41,50),IF(A3=$G$7,RANDBETWEEN(50,59)))))))</f>
-        <v>10</v>
+        <f t="shared" ref="B3:B50" ca="1" si="4">IF(A3=$G$2,RANDBETWEEN(1,10),IF(A3=$G$3,RANDBETWEEN(11,20),IF(A3=$G$4,RANDBETWEEN(21,30),IF(A3=$G$5,RANDBETWEEN(31,40),IF(A3=$G$6,RANDBETWEEN(41,50),IF(A3=$G$7,RANDBETWEEN(50,59)))))))</f>
+        <v>59</v>
       </c>
       <c r="C3" t="str">
         <f ca="1">VLOOKUP($B3,product!$A$2:$E$60,5)</f>
-        <v>열린책들</v>
+        <v>LG전자</v>
       </c>
       <c r="D3">
         <f ca="1">VLOOKUP($B3,product!$A$2:$E$60,3)</f>
-        <v>12800</v>
+        <v>2690000</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E66" ca="1" si="3">INDEX($G$10:$G$12,MATCH(RAND(),$I$10:$I$12))</f>
-        <v>1</v>
+        <f t="shared" ref="E3:E66" ca="1" si="5">INDEX($G$10:$G$12,MATCH(RAND(),$I$10:$I$12))</f>
+        <v>3</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
       </c>
       <c r="H3" s="1">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="I3" s="1">
         <f>SUM(H2,I2)</f>
-        <v>0.2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J7" ca="1" si="4">COUNTIF(A:A,G3)</f>
-        <v>37</v>
+        <f t="shared" ref="J3:J7" ca="1" si="6">COUNTIF(A:A,G3)</f>
+        <v>38</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K7" ca="1" si="5">J3/$J$8</f>
-        <v>0.37</v>
+        <f t="shared" ref="K3:K7" ca="1" si="7">J3/$J$8</f>
+        <v>0.19</v>
       </c>
       <c r="M3" t="str">
-        <f ca="1">INDEX($G$16:$G$18,MATCH(RAND(),$I$16:$I$18))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>B001</v>
       </c>
       <c r="N3">
-        <f ca="1">VLOOKUP(M3,$G$16:$J$18,4)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>2000</v>
       </c>
       <c r="O3">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>전자기기</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>패션</v>
       </c>
       <c r="B4">
-        <f t="shared" ca="1" si="2"/>
-        <v>55</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>11</v>
       </c>
       <c r="C4" t="str">
         <f ca="1">VLOOKUP($B4,product!$A$2:$E$60,5)</f>
-        <v>소니코리아(주)</v>
+        <v>아디오스</v>
       </c>
       <c r="D4">
         <f ca="1">VLOOKUP($B4,product!$A$2:$E$60,3)</f>
-        <v>530000</v>
+        <v>200000</v>
       </c>
       <c r="E4">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
       </c>
       <c r="G4" t="s">
         <v>8</v>
       </c>
       <c r="H4" s="1">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="I4" s="1">
-        <f t="shared" ref="I4:I7" si="6">SUM(H3,I3)</f>
-        <v>0.5</v>
+        <f t="shared" ref="I4:I7" si="8">SUM(H3,I3)</f>
+        <v>0.34</v>
       </c>
       <c r="J4">
-        <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>26</v>
       </c>
       <c r="K4">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.09</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.13</v>
       </c>
       <c r="M4" t="str">
-        <f ca="1">INDEX($G$16:$G$18,MATCH(RAND(),$I$16:$I$18))</f>
-        <v>A001</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>B001</v>
       </c>
       <c r="N4">
-        <f ca="1">VLOOKUP(M4,$G$16:$J$18,4)</f>
-        <v>2300</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2000</v>
       </c>
       <c r="O4">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>전자기기</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>패션</v>
       </c>
       <c r="B5">
-        <f t="shared" ca="1" si="2"/>
-        <v>59</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>19</v>
       </c>
       <c r="C5" t="str">
         <f ca="1">VLOOKUP($B5,product!$A$2:$E$60,5)</f>
-        <v>LG전자</v>
+        <v>나이스</v>
       </c>
       <c r="D5">
         <f ca="1">VLOOKUP($B5,product!$A$2:$E$60,3)</f>
-        <v>2690000</v>
+        <v>115000</v>
       </c>
       <c r="E5">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
       <c r="G5" t="s">
         <v>14</v>
       </c>
       <c r="H5" s="1">
-        <v>0.1</v>
+        <v>0.24</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" si="6"/>
-        <v>0.6</v>
+        <f t="shared" si="8"/>
+        <v>0.46</v>
       </c>
       <c r="J5">
-        <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>47</v>
       </c>
       <c r="K5">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.08</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.23499999999999999</v>
       </c>
       <c r="M5" t="str">
-        <f ca="1">INDEX($G$16:$G$18,MATCH(RAND(),$I$16:$I$18))</f>
-        <v>C001</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>A001</v>
       </c>
       <c r="N5">
-        <f ca="1">VLOOKUP(M5,$G$16:$J$18,4)</f>
-        <v>2500</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2300</v>
       </c>
       <c r="O5">
-        <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>식품</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>공구</v>
       </c>
       <c r="B6">
-        <f t="shared" ca="1" si="2"/>
-        <v>43</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>28</v>
       </c>
       <c r="C6" t="str">
         <f ca="1">VLOOKUP($B6,product!$A$2:$E$60,5)</f>
-        <v>롯데칠성음료</v>
+        <v>Bosch</v>
       </c>
       <c r="D6">
         <f ca="1">VLOOKUP($B6,product!$A$2:$E$60,3)</f>
-        <v>26000</v>
+        <v>128400</v>
       </c>
       <c r="E6">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
       </c>
       <c r="G6" t="s">
         <v>12</v>
       </c>
       <c r="H6" s="1">
-        <v>0.16</v>
+        <v>0.24</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.7</v>
       </c>
       <c r="J6">
-        <f t="shared" ca="1" si="4"/>
-        <v>16</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>48</v>
       </c>
       <c r="K6">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.16</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0.24</v>
       </c>
       <c r="M6" t="str">
-        <f ca="1">INDEX($G$16:$G$18,MATCH(RAND(),$I$16:$I$18))</f>
-        <v>A001</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>B001</v>
       </c>
       <c r="N6">
-        <f ca="1">VLOOKUP(M6,$G$16:$J$18,4)</f>
-        <v>2300</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2000</v>
       </c>
       <c r="O6">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>패션</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>공구</v>
       </c>
       <c r="B7">
-        <f t="shared" ca="1" si="2"/>
-        <v>12</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>27</v>
       </c>
       <c r="C7" t="str">
         <f ca="1">VLOOKUP($B7,product!$A$2:$E$60,5)</f>
-        <v>아디오스</v>
+        <v>Bosch</v>
       </c>
       <c r="D7">
         <f ca="1">VLOOKUP($B7,product!$A$2:$E$60,3)</f>
-        <v>139000</v>
+        <v>142800</v>
       </c>
       <c r="E7">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
       </c>
       <c r="G7" t="s">
         <v>11</v>
       </c>
       <c r="H7" s="1">
-        <v>0.14000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" si="6"/>
-        <v>0.86</v>
+        <f t="shared" si="8"/>
+        <v>0.94</v>
       </c>
       <c r="J7">
-        <f t="shared" ca="1" si="4"/>
-        <v>15</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>9</v>
       </c>
       <c r="K7">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.15</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="M7" t="str">
-        <f ca="1">INDEX($G$16:$G$18,MATCH(RAND(),$I$16:$I$18))</f>
-        <v>C001</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>B001</v>
       </c>
       <c r="N7">
-        <f ca="1">VLOOKUP(M7,$G$16:$J$18,4)</f>
-        <v>2500</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2000</v>
       </c>
       <c r="O7">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>전자기기</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>리빙</v>
       </c>
       <c r="B8">
-        <f t="shared" ca="1" si="2"/>
-        <v>54</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>35</v>
       </c>
       <c r="C8" t="str">
         <f ca="1">VLOOKUP($B8,product!$A$2:$E$60,5)</f>
-        <v>삼성전자</v>
+        <v>모던홈</v>
       </c>
       <c r="D8">
         <f ca="1">VLOOKUP($B8,product!$A$2:$E$60,3)</f>
-        <v>958000</v>
+        <v>150000</v>
       </c>
       <c r="E8">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>2</v>
       </c>
       <c r="G8" t="s">
@@ -1584,79 +1590,79 @@
       <c r="I8" s="1"/>
       <c r="J8">
         <f ca="1">SUM(J2:J7)</f>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K8">
         <f ca="1">SUM(K2:K7)</f>
         <v>1</v>
       </c>
       <c r="M8" t="str">
-        <f ca="1">INDEX($G$16:$G$18,MATCH(RAND(),$I$16:$I$18))</f>
-        <v>A001</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>C001</v>
       </c>
       <c r="N8">
-        <f ca="1">VLOOKUP(M8,$G$16:$J$18,4)</f>
-        <v>2300</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2500</v>
       </c>
       <c r="O8">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>패션</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>리빙</v>
       </c>
       <c r="B9">
-        <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>40</v>
       </c>
       <c r="C9" t="str">
         <f ca="1">VLOOKUP($B9,product!$A$2:$E$60,5)</f>
-        <v>아구찜</v>
+        <v>팔도</v>
       </c>
       <c r="D9">
         <f ca="1">VLOOKUP($B9,product!$A$2:$E$60,3)</f>
-        <v>4900000</v>
+        <v>14400</v>
       </c>
       <c r="E9">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
       <c r="M9" t="str">
-        <f ca="1">INDEX($G$16:$G$18,MATCH(RAND(),$I$16:$I$18))</f>
-        <v>C001</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>A001</v>
       </c>
       <c r="N9">
-        <f ca="1">VLOOKUP(M9,$G$16:$J$18,4)</f>
-        <v>2500</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2300</v>
       </c>
       <c r="O9">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>패션</v>
       </c>
       <c r="B10">
-        <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>19</v>
       </c>
       <c r="C10" t="str">
         <f ca="1">VLOOKUP($B10,product!$A$2:$E$60,5)</f>
-        <v>아구찜</v>
+        <v>나이스</v>
       </c>
       <c r="D10">
         <f ca="1">VLOOKUP($B10,product!$A$2:$E$60,3)</f>
-        <v>4900000</v>
+        <v>115000</v>
       </c>
       <c r="E10">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1671,38 +1677,38 @@
         <v>1</v>
       </c>
       <c r="M10" t="str">
-        <f ca="1">INDEX($G$16:$G$18,MATCH(RAND(),$I$16:$I$18))</f>
-        <v>C001</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>A001</v>
       </c>
       <c r="N10">
-        <f ca="1">VLOOKUP(M10,$G$16:$J$18,4)</f>
-        <v>2500</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2300</v>
       </c>
       <c r="O10">
-        <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>식품</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>공구</v>
       </c>
       <c r="B11">
-        <f t="shared" ca="1" si="2"/>
-        <v>45</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>27</v>
       </c>
       <c r="C11" t="str">
         <f ca="1">VLOOKUP($B11,product!$A$2:$E$60,5)</f>
-        <v>(주)횡성명품한우유통사업단</v>
+        <v>Bosch</v>
       </c>
       <c r="D11">
         <f ca="1">VLOOKUP($B11,product!$A$2:$E$60,3)</f>
-        <v>39500</v>
+        <v>142800</v>
       </c>
       <c r="E11">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -1714,39 +1720,42 @@
         <f>SUM(H10+I10)</f>
         <v>0.3</v>
       </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
       <c r="M11" t="str">
-        <f ca="1">INDEX($G$16:$G$18,MATCH(RAND(),$I$16:$I$18))</f>
-        <v>A001</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>B001</v>
       </c>
       <c r="N11">
-        <f ca="1">VLOOKUP(M11,$G$16:$J$18,4)</f>
-        <v>2300</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2000</v>
       </c>
       <c r="O11">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>패션</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>도서</v>
       </c>
       <c r="B12">
-        <f t="shared" ca="1" si="2"/>
-        <v>15</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="C12" t="str">
         <f ca="1">VLOOKUP($B12,product!$A$2:$E$60,5)</f>
-        <v>디스이즈네버댓</v>
+        <v>길벗</v>
       </c>
       <c r="D12">
         <f ca="1">VLOOKUP($B12,product!$A$2:$E$60,3)</f>
-        <v>118300</v>
+        <v>29000</v>
       </c>
       <c r="E12">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -1759,140 +1768,140 @@
         <v>0.7</v>
       </c>
       <c r="M12" t="str">
-        <f ca="1">INDEX($G$16:$G$18,MATCH(RAND(),$I$16:$I$18))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>A001</v>
       </c>
       <c r="N12">
-        <f ca="1">VLOOKUP(M12,$G$16:$J$18,4)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>2300</v>
       </c>
       <c r="O12">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>패션</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>식품</v>
       </c>
       <c r="B13">
-        <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>46</v>
       </c>
       <c r="C13" t="str">
         <f ca="1">VLOOKUP($B13,product!$A$2:$E$60,5)</f>
-        <v>나이스</v>
+        <v>농협</v>
       </c>
       <c r="D13">
         <f ca="1">VLOOKUP($B13,product!$A$2:$E$60,3)</f>
-        <v>239000</v>
+        <v>43900</v>
       </c>
       <c r="E13">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
       </c>
       <c r="M13" t="str">
-        <f ca="1">INDEX($G$16:$G$18,MATCH(RAND(),$I$16:$I$18))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>A001</v>
       </c>
       <c r="N13">
-        <f ca="1">VLOOKUP(M13,$G$16:$J$18,4)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>2300</v>
       </c>
       <c r="O13">
-        <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>도서</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>공구</v>
       </c>
       <c r="B14">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>24</v>
       </c>
       <c r="C14" t="str">
         <f ca="1">VLOOKUP($B14,product!$A$2:$E$60,5)</f>
-        <v>길벗</v>
+        <v>Bosch</v>
       </c>
       <c r="D14">
         <f ca="1">VLOOKUP($B14,product!$A$2:$E$60,3)</f>
-        <v>17700</v>
+        <v>52030</v>
       </c>
       <c r="E14">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
       </c>
       <c r="M14" t="str">
-        <f ca="1">INDEX($G$16:$G$18,MATCH(RAND(),$I$16:$I$18))</f>
-        <v>A001</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>B001</v>
       </c>
       <c r="N14">
-        <f ca="1">VLOOKUP(M14,$G$16:$J$18,4)</f>
-        <v>2300</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2000</v>
       </c>
       <c r="O14">
-        <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>공구</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>식품</v>
       </c>
       <c r="B15">
-        <f t="shared" ca="1" si="2"/>
-        <v>21</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>44</v>
       </c>
       <c r="C15" t="str">
         <f ca="1">VLOOKUP($B15,product!$A$2:$E$60,5)</f>
-        <v>Bosch</v>
+        <v>(주)해맑음푸드</v>
       </c>
       <c r="D15">
         <f ca="1">VLOOKUP($B15,product!$A$2:$E$60,3)</f>
-        <v>98270</v>
+        <v>28000</v>
       </c>
       <c r="E15">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
       </c>
       <c r="M15" t="str">
-        <f ca="1">INDEX($G$16:$G$18,MATCH(RAND(),$I$16:$I$18))</f>
-        <v>B001</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>C001</v>
       </c>
       <c r="N15">
-        <f ca="1">VLOOKUP(M15,$G$16:$J$18,4)</f>
-        <v>2000</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2500</v>
       </c>
       <c r="O15">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>패션</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>식품</v>
       </c>
       <c r="B16">
-        <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>41</v>
       </c>
       <c r="C16" t="str">
         <f ca="1">VLOOKUP($B16,product!$A$2:$E$60,5)</f>
-        <v>아구찜</v>
+        <v>(주)동원엔터프라이즈</v>
       </c>
       <c r="D16">
         <f ca="1">VLOOKUP($B16,product!$A$2:$E$60,3)</f>
-        <v>4900000</v>
+        <v>51600</v>
       </c>
       <c r="E16">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
       </c>
       <c r="G16" t="s">
         <v>261</v>
@@ -1908,37 +1917,37 @@
         <v>2300</v>
       </c>
       <c r="M16" t="str">
-        <f ca="1">INDEX($G$16:$G$18,MATCH(RAND(),$I$16:$I$18))</f>
-        <v>B001</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>A001</v>
       </c>
       <c r="N16">
-        <f ca="1">VLOOKUP(M16,$G$16:$J$18,4)</f>
-        <v>2000</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2300</v>
       </c>
       <c r="O16">
-        <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>식품</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>도서</v>
       </c>
       <c r="B17">
-        <f t="shared" ca="1" si="2"/>
-        <v>48</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>6</v>
       </c>
       <c r="C17" t="str">
         <f ca="1">VLOOKUP($B17,product!$A$2:$E$60,5)</f>
-        <v>농심</v>
+        <v>열린책들</v>
       </c>
       <c r="D17">
         <f ca="1">VLOOKUP($B17,product!$A$2:$E$60,3)</f>
-        <v>39600</v>
+        <v>13800</v>
       </c>
       <c r="E17">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
       <c r="G17" t="s">
@@ -1948,45 +1957,45 @@
         <v>0.25</v>
       </c>
       <c r="I17">
-        <f t="shared" ref="I17:I18" si="7">H16+I16</f>
+        <f t="shared" ref="I17:I18" si="9">H16+I16</f>
         <v>0.35</v>
       </c>
       <c r="J17">
         <v>2000</v>
       </c>
       <c r="M17" t="str">
-        <f ca="1">INDEX($G$16:$G$18,MATCH(RAND(),$I$16:$I$18))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>A001</v>
       </c>
       <c r="N17">
-        <f ca="1">VLOOKUP(M17,$G$16:$J$18,4)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>2300</v>
       </c>
       <c r="O17">
-        <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>식품</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>리빙</v>
       </c>
       <c r="B18">
-        <f t="shared" ca="1" si="2"/>
-        <v>42</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>33</v>
       </c>
       <c r="C18" t="str">
         <f ca="1">VLOOKUP($B18,product!$A$2:$E$60,5)</f>
-        <v>도드람양돈협동조합</v>
+        <v>모던홈</v>
       </c>
       <c r="D18">
         <f ca="1">VLOOKUP($B18,product!$A$2:$E$60,3)</f>
-        <v>28000</v>
+        <v>800000</v>
       </c>
       <c r="E18">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
       </c>
       <c r="G18" t="s">
         <v>263</v>
@@ -1995,44 +2004,44 @@
         <v>0.4</v>
       </c>
       <c r="I18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.6</v>
       </c>
       <c r="J18">
         <v>2500</v>
       </c>
       <c r="M18" t="str">
-        <f ca="1">INDEX($G$16:$G$18,MATCH(RAND(),$I$16:$I$18))</f>
-        <v>A001</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>B001</v>
       </c>
       <c r="N18">
-        <f ca="1">VLOOKUP(M18,$G$16:$J$18,4)</f>
-        <v>2300</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2000</v>
       </c>
       <c r="O18">
-        <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>도서</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>패션</v>
       </c>
       <c r="B19">
-        <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>16</v>
       </c>
       <c r="C19" t="str">
         <f ca="1">VLOOKUP($B19,product!$A$2:$E$60,5)</f>
-        <v>열린책들</v>
+        <v>디스이즈네버댓</v>
       </c>
       <c r="D19">
         <f ca="1">VLOOKUP($B19,product!$A$2:$E$60,3)</f>
-        <v>13800</v>
+        <v>31500</v>
       </c>
       <c r="E19">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>3</v>
       </c>
       <c r="H19" s="1">
@@ -2040,72 +2049,72 @@
         <v>1</v>
       </c>
       <c r="M19" t="str">
-        <f ca="1">INDEX($G$16:$G$18,MATCH(RAND(),$I$16:$I$18))</f>
+        <f t="shared" ca="1" si="0"/>
         <v>B001</v>
       </c>
       <c r="N19">
-        <f ca="1">VLOOKUP(M19,$G$16:$J$18,4)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>2000</v>
       </c>
       <c r="O19">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>전자기기</v>
+      </c>
+      <c r="B20">
+        <f t="shared" ca="1" si="4"/>
+        <v>54</v>
+      </c>
+      <c r="C20" t="str">
+        <f ca="1">VLOOKUP($B20,product!$A$2:$E$60,5)</f>
+        <v>삼성전자</v>
+      </c>
+      <c r="D20">
+        <f ca="1">VLOOKUP($B20,product!$A$2:$E$60,3)</f>
+        <v>958000</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="M20" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A001</v>
+      </c>
+      <c r="N20">
         <f t="shared" ca="1" si="1"/>
-        <v>패션</v>
-      </c>
-      <c r="B20">
+        <v>2300</v>
+      </c>
+      <c r="O20">
         <f t="shared" ca="1" si="2"/>
         <v>20</v>
       </c>
-      <c r="C20" t="str">
-        <f ca="1">VLOOKUP($B20,product!$A$2:$E$60,5)</f>
-        <v>나이스</v>
-      </c>
-      <c r="D20">
-        <f ca="1">VLOOKUP($B20,product!$A$2:$E$60,3)</f>
-        <v>239000</v>
-      </c>
-      <c r="E20">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="M20" t="str">
-        <f ca="1">INDEX($G$16:$G$18,MATCH(RAND(),$I$16:$I$18))</f>
-        <v>A001</v>
-      </c>
-      <c r="N20">
-        <f ca="1">VLOOKUP(M20,$G$16:$J$18,4)</f>
-        <v>2300</v>
-      </c>
-      <c r="O20">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
-      </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>도서</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>공구</v>
       </c>
       <c r="B21">
-        <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>28</v>
       </c>
       <c r="C21" t="str">
         <f ca="1">VLOOKUP($B21,product!$A$2:$E$60,5)</f>
-        <v>열린책들</v>
+        <v>Bosch</v>
       </c>
       <c r="D21">
         <f ca="1">VLOOKUP($B21,product!$A$2:$E$60,3)</f>
-        <v>13800</v>
+        <v>128400</v>
       </c>
       <c r="E21">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
       </c>
       <c r="G21">
         <v>10</v>
@@ -2119,24 +2128,24 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>패션</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>리빙</v>
       </c>
       <c r="B22">
-        <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>36</v>
       </c>
       <c r="C22" t="str">
         <f ca="1">VLOOKUP($B22,product!$A$2:$E$60,5)</f>
-        <v>아디오스</v>
+        <v>모던홈</v>
       </c>
       <c r="D22">
         <f ca="1">VLOOKUP($B22,product!$A$2:$E$60,3)</f>
-        <v>200000</v>
+        <v>700000</v>
       </c>
       <c r="E22">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
       </c>
       <c r="G22">
         <v>20</v>
@@ -2150,37 +2159,37 @@
       </c>
       <c r="M22">
         <f ca="1">SUMIF($M$1:$M$20,$G$16,$N$1:$N$20)</f>
-        <v>23000</v>
+        <v>20700</v>
       </c>
       <c r="N22">
         <f ca="1">SUMIF($M$1:$M$20,$G16,$O$1:$O$20)</f>
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="O22">
         <f ca="1">M22*N22</f>
-        <v>3680000</v>
+        <v>2898000</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>패션</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>공구</v>
       </c>
       <c r="B23">
-        <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>24</v>
       </c>
       <c r="C23" t="str">
         <f ca="1">VLOOKUP($B23,product!$A$2:$E$60,5)</f>
-        <v>아구찜</v>
+        <v>Bosch</v>
       </c>
       <c r="D23">
         <f ca="1">VLOOKUP($B23,product!$A$2:$E$60,3)</f>
-        <v>4900000</v>
+        <v>52030</v>
       </c>
       <c r="E23">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
       </c>
       <c r="G23">
         <v>30</v>
@@ -2193,147 +2202,147 @@
         <v>0.66</v>
       </c>
       <c r="M23">
-        <f t="shared" ref="M23:M24" ca="1" si="8">SUMIF($M$1:$M$20,G17,$N$1:$N$20)</f>
-        <v>10000</v>
+        <f t="shared" ref="M23:M24" ca="1" si="10">SUMIF($M$1:$M$20,G17,$N$1:$N$20)</f>
+        <v>16000</v>
       </c>
       <c r="N23">
-        <f t="shared" ref="N23:N24" ca="1" si="9">SUMIF($M$1:$M$20,$G17,$O$1:$O$20)</f>
-        <v>80</v>
+        <f t="shared" ref="N23:N24" ca="1" si="11">SUMIF($M$1:$M$20,$G17,$O$1:$O$20)</f>
+        <v>150</v>
       </c>
       <c r="O23">
-        <f t="shared" ref="O23:O24" ca="1" si="10">M23*N23</f>
-        <v>800000</v>
+        <f t="shared" ref="O23:O24" ca="1" si="12">M23*N23</f>
+        <v>2400000</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>도서</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>식품</v>
       </c>
       <c r="B24">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>43</v>
       </c>
       <c r="C24" t="str">
         <f ca="1">VLOOKUP($B24,product!$A$2:$E$60,5)</f>
-        <v>길벗</v>
+        <v>롯데칠성음료</v>
       </c>
       <c r="D24">
         <f ca="1">VLOOKUP($B24,product!$A$2:$E$60,3)</f>
-        <v>24000</v>
+        <v>26000</v>
       </c>
       <c r="E24">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
       </c>
       <c r="M24">
-        <f t="shared" ca="1" si="8"/>
-        <v>12500</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>7500</v>
       </c>
       <c r="N24">
-        <f t="shared" ca="1" si="9"/>
-        <v>100</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>50</v>
       </c>
       <c r="O24">
-        <f t="shared" ca="1" si="10"/>
-        <v>1250000</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>375000</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>도서</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>리빙</v>
       </c>
       <c r="B25">
-        <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>39</v>
       </c>
       <c r="C25" t="str">
         <f ca="1">VLOOKUP($B25,product!$A$2:$E$60,5)</f>
-        <v>열린책들</v>
+        <v>모던홈</v>
       </c>
       <c r="D25">
         <f ca="1">VLOOKUP($B25,product!$A$2:$E$60,3)</f>
-        <v>12800</v>
+        <v>69000</v>
       </c>
       <c r="E25">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>패션</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>도서</v>
       </c>
       <c r="B26">
-        <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>9</v>
       </c>
       <c r="C26" t="str">
         <f ca="1">VLOOKUP($B26,product!$A$2:$E$60,5)</f>
-        <v>나이스</v>
+        <v>열린책들</v>
       </c>
       <c r="D26">
         <f ca="1">VLOOKUP($B26,product!$A$2:$E$60,3)</f>
-        <v>239000</v>
+        <v>22000</v>
       </c>
       <c r="E26">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>패션</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>도서</v>
       </c>
       <c r="B27">
-        <f t="shared" ca="1" si="2"/>
-        <v>12</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>8</v>
       </c>
       <c r="C27" t="str">
         <f ca="1">VLOOKUP($B27,product!$A$2:$E$60,5)</f>
-        <v>아디오스</v>
+        <v>열린책들</v>
       </c>
       <c r="D27">
         <f ca="1">VLOOKUP($B27,product!$A$2:$E$60,3)</f>
-        <v>139000</v>
+        <v>22000</v>
       </c>
       <c r="E27">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>도서</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>리빙</v>
       </c>
       <c r="B28">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>38</v>
       </c>
       <c r="C28" t="str">
         <f ca="1">VLOOKUP($B28,product!$A$2:$E$60,5)</f>
-        <v>길벗</v>
+        <v>모던홈</v>
       </c>
       <c r="D28">
         <f ca="1">VLOOKUP($B28,product!$A$2:$E$60,3)</f>
-        <v>29000</v>
+        <v>1100000</v>
       </c>
       <c r="E28">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>리빙</v>
       </c>
       <c r="B29">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>37</v>
       </c>
       <c r="C29" t="str">
@@ -2345,106 +2354,106 @@
         <v>150000</v>
       </c>
       <c r="E29">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>식품</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>공구</v>
       </c>
       <c r="B30">
-        <f t="shared" ca="1" si="2"/>
-        <v>45</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>25</v>
       </c>
       <c r="C30" t="str">
         <f ca="1">VLOOKUP($B30,product!$A$2:$E$60,5)</f>
-        <v>(주)횡성명품한우유통사업단</v>
+        <v>Bosch</v>
       </c>
       <c r="D30">
         <f ca="1">VLOOKUP($B30,product!$A$2:$E$60,3)</f>
-        <v>39500</v>
+        <v>36000</v>
       </c>
       <c r="E30">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>도서</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>식품</v>
       </c>
       <c r="B31">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>48</v>
       </c>
       <c r="C31" t="str">
         <f ca="1">VLOOKUP($B31,product!$A$2:$E$60,5)</f>
-        <v>길벗</v>
+        <v>농심</v>
       </c>
       <c r="D31">
         <f ca="1">VLOOKUP($B31,product!$A$2:$E$60,3)</f>
-        <v>24000</v>
+        <v>39600</v>
       </c>
       <c r="E31">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>식품</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>패션</v>
       </c>
       <c r="B32">
-        <f t="shared" ca="1" si="2"/>
-        <v>44</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>13</v>
       </c>
       <c r="C32" t="str">
         <f ca="1">VLOOKUP($B32,product!$A$2:$E$60,5)</f>
-        <v>(주)해맑음푸드</v>
+        <v>노스페이스</v>
       </c>
       <c r="D32">
         <f ca="1">VLOOKUP($B32,product!$A$2:$E$60,3)</f>
-        <v>28000</v>
+        <v>400000</v>
       </c>
       <c r="E32">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>패션</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>도서</v>
       </c>
       <c r="B33">
-        <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
       </c>
       <c r="C33" t="str">
         <f ca="1">VLOOKUP($B33,product!$A$2:$E$60,5)</f>
-        <v>아구찜</v>
+        <v>길벗</v>
       </c>
       <c r="D33">
         <f ca="1">VLOOKUP($B33,product!$A$2:$E$60,3)</f>
-        <v>4900000</v>
+        <v>29800</v>
       </c>
       <c r="E33">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>도서</v>
       </c>
       <c r="B34">
-        <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>7</v>
       </c>
       <c r="C34" t="str">
         <f ca="1">VLOOKUP($B34,product!$A$2:$E$60,5)</f>
@@ -2455,435 +2464,435 @@
         <v>13800</v>
       </c>
       <c r="E34">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>리빙</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>전자기기</v>
       </c>
       <c r="B35">
-        <f t="shared" ca="1" si="2"/>
-        <v>37</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>59</v>
       </c>
       <c r="C35" t="str">
         <f ca="1">VLOOKUP($B35,product!$A$2:$E$60,5)</f>
-        <v>모던홈</v>
+        <v>LG전자</v>
       </c>
       <c r="D35">
         <f ca="1">VLOOKUP($B35,product!$A$2:$E$60,3)</f>
-        <v>150000</v>
+        <v>2690000</v>
       </c>
       <c r="E35">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>패션</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>리빙</v>
       </c>
       <c r="B36">
-        <f t="shared" ca="1" si="2"/>
-        <v>14</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>34</v>
       </c>
       <c r="C36" t="str">
         <f ca="1">VLOOKUP($B36,product!$A$2:$E$60,5)</f>
-        <v>노스페이스</v>
+        <v>모던홈</v>
       </c>
       <c r="D36">
         <f ca="1">VLOOKUP($B36,product!$A$2:$E$60,3)</f>
-        <v>62300</v>
+        <v>75000</v>
       </c>
       <c r="E36">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>도서</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>리빙</v>
       </c>
       <c r="B37">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>31</v>
       </c>
       <c r="C37" t="str">
         <f ca="1">VLOOKUP($B37,product!$A$2:$E$60,5)</f>
-        <v>길벗</v>
+        <v>모던홈</v>
       </c>
       <c r="D37">
         <f ca="1">VLOOKUP($B37,product!$A$2:$E$60,3)</f>
-        <v>17700</v>
+        <v>45000</v>
       </c>
       <c r="E37">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>도서</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>패션</v>
       </c>
       <c r="B38">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>13</v>
       </c>
       <c r="C38" t="str">
         <f ca="1">VLOOKUP($B38,product!$A$2:$E$60,5)</f>
-        <v>길벗</v>
+        <v>노스페이스</v>
       </c>
       <c r="D38">
         <f ca="1">VLOOKUP($B38,product!$A$2:$E$60,3)</f>
-        <v>21000</v>
+        <v>400000</v>
       </c>
       <c r="E38">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>리빙</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>공구</v>
       </c>
       <c r="B39">
-        <f t="shared" ca="1" si="2"/>
-        <v>36</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>26</v>
       </c>
       <c r="C39" t="str">
         <f ca="1">VLOOKUP($B39,product!$A$2:$E$60,5)</f>
-        <v>모던홈</v>
+        <v>Bosch</v>
       </c>
       <c r="D39">
         <f ca="1">VLOOKUP($B39,product!$A$2:$E$60,3)</f>
-        <v>700000</v>
+        <v>199000</v>
       </c>
       <c r="E39">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>공구</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>리빙</v>
       </c>
       <c r="B40">
-        <f t="shared" ca="1" si="2"/>
-        <v>27</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>34</v>
       </c>
       <c r="C40" t="str">
         <f ca="1">VLOOKUP($B40,product!$A$2:$E$60,5)</f>
-        <v>Bosch</v>
+        <v>모던홈</v>
       </c>
       <c r="D40">
         <f ca="1">VLOOKUP($B40,product!$A$2:$E$60,3)</f>
-        <v>142800</v>
+        <v>75000</v>
       </c>
       <c r="E40">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>공구</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>패션</v>
       </c>
       <c r="B41">
-        <f t="shared" ca="1" si="2"/>
-        <v>30</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>19</v>
       </c>
       <c r="C41" t="str">
         <f ca="1">VLOOKUP($B41,product!$A$2:$E$60,5)</f>
-        <v>Bosch</v>
+        <v>나이스</v>
       </c>
       <c r="D41">
         <f ca="1">VLOOKUP($B41,product!$A$2:$E$60,3)</f>
-        <v>934410</v>
+        <v>115000</v>
       </c>
       <c r="E41">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>패션</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>식품</v>
       </c>
       <c r="B42">
-        <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>44</v>
       </c>
       <c r="C42" t="str">
         <f ca="1">VLOOKUP($B42,product!$A$2:$E$60,5)</f>
-        <v>나이스</v>
+        <v>(주)해맑음푸드</v>
       </c>
       <c r="D42">
         <f ca="1">VLOOKUP($B42,product!$A$2:$E$60,3)</f>
-        <v>239000</v>
+        <v>28000</v>
       </c>
       <c r="E42">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>리빙</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>식품</v>
       </c>
       <c r="B43">
-        <f t="shared" ca="1" si="2"/>
-        <v>40</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>45</v>
       </c>
       <c r="C43" t="str">
         <f ca="1">VLOOKUP($B43,product!$A$2:$E$60,5)</f>
-        <v>팔도</v>
+        <v>(주)횡성명품한우유통사업단</v>
       </c>
       <c r="D43">
         <f ca="1">VLOOKUP($B43,product!$A$2:$E$60,3)</f>
-        <v>14400</v>
+        <v>39500</v>
       </c>
       <c r="E43">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>패션</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>식품</v>
       </c>
       <c r="B44">
-        <f t="shared" ca="1" si="2"/>
-        <v>16</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>45</v>
       </c>
       <c r="C44" t="str">
         <f ca="1">VLOOKUP($B44,product!$A$2:$E$60,5)</f>
-        <v>디스이즈네버댓</v>
+        <v>(주)횡성명품한우유통사업단</v>
       </c>
       <c r="D44">
         <f ca="1">VLOOKUP($B44,product!$A$2:$E$60,3)</f>
-        <v>31500</v>
+        <v>39500</v>
       </c>
       <c r="E44">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>패션</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>식품</v>
       </c>
       <c r="B45">
-        <f t="shared" ca="1" si="2"/>
-        <v>14</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>50</v>
       </c>
       <c r="C45" t="str">
         <f ca="1">VLOOKUP($B45,product!$A$2:$E$60,5)</f>
-        <v>노스페이스</v>
+        <v>삼성전자</v>
       </c>
       <c r="D45">
         <f ca="1">VLOOKUP($B45,product!$A$2:$E$60,3)</f>
-        <v>62300</v>
+        <v>700000</v>
       </c>
       <c r="E45">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>리빙</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>공구</v>
       </c>
       <c r="B46">
-        <f t="shared" ca="1" si="2"/>
-        <v>32</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>25</v>
       </c>
       <c r="C46" t="str">
         <f ca="1">VLOOKUP($B46,product!$A$2:$E$60,5)</f>
-        <v>모던홈</v>
+        <v>Bosch</v>
       </c>
       <c r="D46">
         <f ca="1">VLOOKUP($B46,product!$A$2:$E$60,3)</f>
-        <v>120000</v>
+        <v>36000</v>
       </c>
       <c r="E46">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>패션</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>식품</v>
       </c>
       <c r="B47">
-        <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>49</v>
       </c>
       <c r="C47" t="str">
         <f ca="1">VLOOKUP($B47,product!$A$2:$E$60,5)</f>
-        <v>아구찜</v>
+        <v>풀무원</v>
       </c>
       <c r="D47">
         <f ca="1">VLOOKUP($B47,product!$A$2:$E$60,3)</f>
-        <v>4900000</v>
+        <v>7800</v>
       </c>
       <c r="E47">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>패션</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>식품</v>
       </c>
       <c r="B48">
-        <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>48</v>
       </c>
       <c r="C48" t="str">
         <f ca="1">VLOOKUP($B48,product!$A$2:$E$60,5)</f>
-        <v>나이스</v>
+        <v>농심</v>
       </c>
       <c r="D48">
         <f ca="1">VLOOKUP($B48,product!$A$2:$E$60,3)</f>
-        <v>239000</v>
+        <v>39600</v>
       </c>
       <c r="E48">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>전자기기</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>식품</v>
       </c>
       <c r="B49">
-        <f t="shared" ca="1" si="2"/>
-        <v>53</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>41</v>
       </c>
       <c r="C49" t="str">
         <f ca="1">VLOOKUP($B49,product!$A$2:$E$60,5)</f>
-        <v>캐리어</v>
+        <v>(주)동원엔터프라이즈</v>
       </c>
       <c r="D49">
         <f ca="1">VLOOKUP($B49,product!$A$2:$E$60,3)</f>
-        <v>240000</v>
+        <v>51600</v>
       </c>
       <c r="E49">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>패션</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>공구</v>
       </c>
       <c r="B50">
-        <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>27</v>
       </c>
       <c r="C50" t="str">
         <f ca="1">VLOOKUP($B50,product!$A$2:$E$60,5)</f>
-        <v>나이스</v>
+        <v>Bosch</v>
       </c>
       <c r="D50">
         <f ca="1">VLOOKUP($B50,product!$A$2:$E$60,3)</f>
-        <v>239000</v>
+        <v>142800</v>
       </c>
       <c r="E50">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>전자기기</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>식품</v>
       </c>
       <c r="B51">
-        <f t="shared" ref="B51" ca="1" si="11">IF(A51=$G$2,RANDBETWEEN(1,10),IF(A51=$G$3,RANDBETWEEN(11,20),IF(A51=$G$4,RANDBETWEEN(21,30),IF(A51=$G$5,RANDBETWEEN(31,40),IF(A51=$G$6,RANDBETWEEN(41,50),IF(A51=$G$7,RANDBETWEEN(50,59)))))))</f>
-        <v>50</v>
+        <f t="shared" ref="B51" ca="1" si="13">IF(A51=$G$2,RANDBETWEEN(1,10),IF(A51=$G$3,RANDBETWEEN(11,20),IF(A51=$G$4,RANDBETWEEN(21,30),IF(A51=$G$5,RANDBETWEEN(31,40),IF(A51=$G$6,RANDBETWEEN(41,50),IF(A51=$G$7,RANDBETWEEN(50,59)))))))</f>
+        <v>45</v>
       </c>
       <c r="C51" t="str">
         <f ca="1">VLOOKUP($B51,product!$A$2:$E$60,5)</f>
-        <v>삼성전자</v>
+        <v>(주)횡성명품한우유통사업단</v>
       </c>
       <c r="D51">
         <f ca="1">VLOOKUP($B51,product!$A$2:$E$60,3)</f>
-        <v>700000</v>
+        <v>39500</v>
       </c>
       <c r="E51">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>패션</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>식품</v>
       </c>
       <c r="B52">
-        <f t="shared" ref="B52:B101" ca="1" si="12">IF(A52=$G$2,RANDBETWEEN(1,10),IF(A52=$G$3,RANDBETWEEN(11,20),IF(A52=$G$4,RANDBETWEEN(21,30),IF(A52=$G$5,RANDBETWEEN(31,40),IF(A52=$G$6,RANDBETWEEN(41,50),IF(A52=$G$7,RANDBETWEEN(50,59)))))))</f>
-        <v>20</v>
+        <f t="shared" ref="B52:B101" ca="1" si="14">IF(A52=$G$2,RANDBETWEEN(1,10),IF(A52=$G$3,RANDBETWEEN(11,20),IF(A52=$G$4,RANDBETWEEN(21,30),IF(A52=$G$5,RANDBETWEEN(31,40),IF(A52=$G$6,RANDBETWEEN(41,50),IF(A52=$G$7,RANDBETWEEN(50,59)))))))</f>
+        <v>43</v>
       </c>
       <c r="C52" t="str">
         <f ca="1">VLOOKUP($B52,product!$A$2:$E$60,5)</f>
-        <v>나이스</v>
+        <v>롯데칠성음료</v>
       </c>
       <c r="D52">
         <f ca="1">VLOOKUP($B52,product!$A$2:$E$60,3)</f>
-        <v>239000</v>
+        <v>26000</v>
       </c>
       <c r="E52">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>식품</v>
       </c>
       <c r="B53">
-        <f t="shared" ca="1" si="12"/>
-        <v>41</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>47</v>
       </c>
       <c r="C53" t="str">
         <f ca="1">VLOOKUP($B53,product!$A$2:$E$60,5)</f>
-        <v>(주)동원엔터프라이즈</v>
+        <v>(주)해맑음푸드</v>
       </c>
       <c r="D53">
         <f ca="1">VLOOKUP($B53,product!$A$2:$E$60,3)</f>
-        <v>51600</v>
+        <v>14900</v>
       </c>
       <c r="E53">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>패션</v>
       </c>
       <c r="B54">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>16</v>
       </c>
       <c r="C54" t="str">
@@ -2895,84 +2904,84 @@
         <v>31500</v>
       </c>
       <c r="E54">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>식품</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>패션</v>
       </c>
       <c r="B55">
-        <f t="shared" ca="1" si="12"/>
-        <v>41</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>19</v>
       </c>
       <c r="C55" t="str">
         <f ca="1">VLOOKUP($B55,product!$A$2:$E$60,5)</f>
-        <v>(주)동원엔터프라이즈</v>
+        <v>나이스</v>
       </c>
       <c r="D55">
         <f ca="1">VLOOKUP($B55,product!$A$2:$E$60,3)</f>
-        <v>51600</v>
+        <v>115000</v>
       </c>
       <c r="E55">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>패션</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>식품</v>
       </c>
       <c r="B56">
-        <f t="shared" ca="1" si="12"/>
-        <v>20</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>42</v>
       </c>
       <c r="C56" t="str">
         <f ca="1">VLOOKUP($B56,product!$A$2:$E$60,5)</f>
-        <v>나이스</v>
+        <v>도드람양돈협동조합</v>
       </c>
       <c r="D56">
         <f ca="1">VLOOKUP($B56,product!$A$2:$E$60,3)</f>
-        <v>239000</v>
+        <v>28000</v>
       </c>
       <c r="E56">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>도서</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>패션</v>
       </c>
       <c r="B57">
-        <f t="shared" ca="1" si="12"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>17</v>
       </c>
       <c r="C57" t="str">
         <f ca="1">VLOOKUP($B57,product!$A$2:$E$60,5)</f>
-        <v>열린책들</v>
+        <v>아구찜</v>
       </c>
       <c r="D57">
         <f ca="1">VLOOKUP($B57,product!$A$2:$E$60,3)</f>
-        <v>13800</v>
+        <v>4900000</v>
       </c>
       <c r="E57">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>공구</v>
       </c>
       <c r="B58">
-        <f t="shared" ca="1" si="12"/>
-        <v>29</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>30</v>
       </c>
       <c r="C58" t="str">
         <f ca="1">VLOOKUP($B58,product!$A$2:$E$60,5)</f>
@@ -2980,681 +2989,681 @@
       </c>
       <c r="D58">
         <f ca="1">VLOOKUP($B58,product!$A$2:$E$60,3)</f>
-        <v>185780</v>
+        <v>934410</v>
       </c>
       <c r="E58">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>리빙</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>식품</v>
       </c>
       <c r="B59">
-        <f t="shared" ca="1" si="12"/>
-        <v>37</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>41</v>
       </c>
       <c r="C59" t="str">
         <f ca="1">VLOOKUP($B59,product!$A$2:$E$60,5)</f>
-        <v>모던홈</v>
+        <v>(주)동원엔터프라이즈</v>
       </c>
       <c r="D59">
         <f ca="1">VLOOKUP($B59,product!$A$2:$E$60,3)</f>
-        <v>150000</v>
+        <v>51600</v>
       </c>
       <c r="E59">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>패션</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>도서</v>
       </c>
       <c r="B60">
-        <f t="shared" ca="1" si="12"/>
-        <v>11</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>8</v>
       </c>
       <c r="C60" t="str">
         <f ca="1">VLOOKUP($B60,product!$A$2:$E$60,5)</f>
-        <v>아디오스</v>
+        <v>열린책들</v>
       </c>
       <c r="D60">
         <f ca="1">VLOOKUP($B60,product!$A$2:$E$60,3)</f>
-        <v>200000</v>
+        <v>22000</v>
       </c>
       <c r="E60">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>패션</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>도서</v>
       </c>
       <c r="B61">
-        <f t="shared" ca="1" si="12"/>
-        <v>13</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>9</v>
       </c>
       <c r="C61" t="str">
         <f ca="1">VLOOKUP($B61,product!$A$2:$E$60,5)</f>
-        <v>노스페이스</v>
+        <v>열린책들</v>
       </c>
       <c r="D61">
         <f ca="1">VLOOKUP($B61,product!$A$2:$E$60,3)</f>
-        <v>400000</v>
+        <v>22000</v>
       </c>
       <c r="E61">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>전자기기</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>도서</v>
       </c>
       <c r="B62">
-        <f t="shared" ca="1" si="12"/>
-        <v>56</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>8</v>
       </c>
       <c r="C62" t="str">
         <f ca="1">VLOOKUP($B62,product!$A$2:$E$60,5)</f>
-        <v>위니아</v>
+        <v>열린책들</v>
       </c>
       <c r="D62">
         <f ca="1">VLOOKUP($B62,product!$A$2:$E$60,3)</f>
-        <v>300000</v>
+        <v>22000</v>
       </c>
       <c r="E62">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>도서</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>식품</v>
       </c>
       <c r="B63">
-        <f t="shared" ca="1" si="12"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>47</v>
       </c>
       <c r="C63" t="str">
         <f ca="1">VLOOKUP($B63,product!$A$2:$E$60,5)</f>
-        <v>길벗</v>
+        <v>(주)해맑음푸드</v>
       </c>
       <c r="D63">
         <f ca="1">VLOOKUP($B63,product!$A$2:$E$60,3)</f>
-        <v>21000</v>
+        <v>14900</v>
       </c>
       <c r="E63">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>식품</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>리빙</v>
       </c>
       <c r="B64">
-        <f t="shared" ca="1" si="12"/>
-        <v>46</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>33</v>
       </c>
       <c r="C64" t="str">
         <f ca="1">VLOOKUP($B64,product!$A$2:$E$60,5)</f>
-        <v>농협</v>
+        <v>모던홈</v>
       </c>
       <c r="D64">
         <f ca="1">VLOOKUP($B64,product!$A$2:$E$60,3)</f>
-        <v>43900</v>
+        <v>800000</v>
       </c>
       <c r="E64">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>패션</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>리빙</v>
       </c>
       <c r="B65">
-        <f t="shared" ca="1" si="12"/>
-        <v>17</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>34</v>
       </c>
       <c r="C65" t="str">
         <f ca="1">VLOOKUP($B65,product!$A$2:$E$60,5)</f>
-        <v>아구찜</v>
+        <v>모던홈</v>
       </c>
       <c r="D65">
         <f ca="1">VLOOKUP($B65,product!$A$2:$E$60,3)</f>
-        <v>4900000</v>
+        <v>75000</v>
       </c>
       <c r="E65">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>전자기기</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>식품</v>
       </c>
       <c r="B66">
-        <f t="shared" ca="1" si="12"/>
-        <v>59</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>49</v>
       </c>
       <c r="C66" t="str">
         <f ca="1">VLOOKUP($B66,product!$A$2:$E$60,5)</f>
-        <v>LG전자</v>
+        <v>풀무원</v>
       </c>
       <c r="D66">
         <f ca="1">VLOOKUP($B66,product!$A$2:$E$60,3)</f>
-        <v>2690000</v>
+        <v>7800</v>
       </c>
       <c r="E66">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="str">
-        <f t="shared" ref="A67:A101" ca="1" si="13">INDEX($G$2:$G$7,MATCH(RAND(),$I$2:$I$7))</f>
-        <v>도서</v>
+        <f t="shared" ref="A67:A130" ca="1" si="15">INDEX($G$2:$G$7,MATCH(RAND(),$I$2:$I$7))</f>
+        <v>식품</v>
       </c>
       <c r="B67">
-        <f t="shared" ca="1" si="12"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>44</v>
       </c>
       <c r="C67" t="str">
         <f ca="1">VLOOKUP($B67,product!$A$2:$E$60,5)</f>
-        <v>길벗</v>
+        <v>(주)해맑음푸드</v>
       </c>
       <c r="D67">
         <f ca="1">VLOOKUP($B67,product!$A$2:$E$60,3)</f>
-        <v>29800</v>
+        <v>28000</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E101" ca="1" si="14">INDEX($G$10:$G$12,MATCH(RAND(),$I$10:$I$12))</f>
-        <v>1</v>
+        <f t="shared" ref="E67:E130" ca="1" si="16">INDEX($G$10:$G$12,MATCH(RAND(),$I$10:$I$12))</f>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>전자기기</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>도서</v>
       </c>
       <c r="B68">
-        <f t="shared" ca="1" si="12"/>
-        <v>53</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>4</v>
       </c>
       <c r="C68" t="str">
         <f ca="1">VLOOKUP($B68,product!$A$2:$E$60,5)</f>
-        <v>캐리어</v>
+        <v>길벗</v>
       </c>
       <c r="D68">
         <f ca="1">VLOOKUP($B68,product!$A$2:$E$60,3)</f>
-        <v>240000</v>
+        <v>21000</v>
       </c>
       <c r="E68">
+        <f t="shared" ca="1" si="16"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>식품</v>
+      </c>
+      <c r="B69">
+        <f t="shared" ca="1" si="14"/>
+        <v>45</v>
+      </c>
+      <c r="C69" t="str">
+        <f ca="1">VLOOKUP($B69,product!$A$2:$E$60,5)</f>
+        <v>(주)횡성명품한우유통사업단</v>
+      </c>
+      <c r="D69">
+        <f ca="1">VLOOKUP($B69,product!$A$2:$E$60,3)</f>
+        <v>39500</v>
+      </c>
+      <c r="E69">
+        <f t="shared" ca="1" si="16"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>리빙</v>
+      </c>
+      <c r="B70">
+        <f t="shared" ca="1" si="14"/>
+        <v>32</v>
+      </c>
+      <c r="C70" t="str">
+        <f ca="1">VLOOKUP($B70,product!$A$2:$E$60,5)</f>
+        <v>모던홈</v>
+      </c>
+      <c r="D70">
+        <f ca="1">VLOOKUP($B70,product!$A$2:$E$60,3)</f>
+        <v>120000</v>
+      </c>
+      <c r="E70">
+        <f t="shared" ca="1" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>리빙</v>
+      </c>
+      <c r="B71">
+        <f t="shared" ca="1" si="14"/>
+        <v>39</v>
+      </c>
+      <c r="C71" t="str">
+        <f ca="1">VLOOKUP($B71,product!$A$2:$E$60,5)</f>
+        <v>모던홈</v>
+      </c>
+      <c r="D71">
+        <f ca="1">VLOOKUP($B71,product!$A$2:$E$60,3)</f>
+        <v>69000</v>
+      </c>
+      <c r="E71">
+        <f t="shared" ca="1" si="16"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>식품</v>
+      </c>
+      <c r="B72">
+        <f t="shared" ca="1" si="14"/>
+        <v>45</v>
+      </c>
+      <c r="C72" t="str">
+        <f ca="1">VLOOKUP($B72,product!$A$2:$E$60,5)</f>
+        <v>(주)횡성명품한우유통사업단</v>
+      </c>
+      <c r="D72">
+        <f ca="1">VLOOKUP($B72,product!$A$2:$E$60,3)</f>
+        <v>39500</v>
+      </c>
+      <c r="E72">
+        <f t="shared" ca="1" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>리빙</v>
+      </c>
+      <c r="B73">
+        <f t="shared" ca="1" si="14"/>
+        <v>39</v>
+      </c>
+      <c r="C73" t="str">
+        <f ca="1">VLOOKUP($B73,product!$A$2:$E$60,5)</f>
+        <v>모던홈</v>
+      </c>
+      <c r="D73">
+        <f ca="1">VLOOKUP($B73,product!$A$2:$E$60,3)</f>
+        <v>69000</v>
+      </c>
+      <c r="E73">
+        <f t="shared" ca="1" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>식품</v>
+      </c>
+      <c r="B74">
+        <f t="shared" ca="1" si="14"/>
+        <v>48</v>
+      </c>
+      <c r="C74" t="str">
+        <f ca="1">VLOOKUP($B74,product!$A$2:$E$60,5)</f>
+        <v>농심</v>
+      </c>
+      <c r="D74">
+        <f ca="1">VLOOKUP($B74,product!$A$2:$E$60,3)</f>
+        <v>39600</v>
+      </c>
+      <c r="E74">
+        <f t="shared" ca="1" si="16"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>공구</v>
+      </c>
+      <c r="B75">
+        <f t="shared" ca="1" si="14"/>
+        <v>28</v>
+      </c>
+      <c r="C75" t="str">
+        <f ca="1">VLOOKUP($B75,product!$A$2:$E$60,5)</f>
+        <v>Bosch</v>
+      </c>
+      <c r="D75">
+        <f ca="1">VLOOKUP($B75,product!$A$2:$E$60,3)</f>
+        <v>128400</v>
+      </c>
+      <c r="E75">
+        <f t="shared" ca="1" si="16"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>리빙</v>
+      </c>
+      <c r="B76">
+        <f t="shared" ca="1" si="14"/>
+        <v>33</v>
+      </c>
+      <c r="C76" t="str">
+        <f ca="1">VLOOKUP($B76,product!$A$2:$E$60,5)</f>
+        <v>모던홈</v>
+      </c>
+      <c r="D76">
+        <f ca="1">VLOOKUP($B76,product!$A$2:$E$60,3)</f>
+        <v>800000</v>
+      </c>
+      <c r="E76">
+        <f t="shared" ca="1" si="16"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>패션</v>
+      </c>
+      <c r="B77">
+        <f t="shared" ca="1" si="14"/>
+        <v>13</v>
+      </c>
+      <c r="C77" t="str">
+        <f ca="1">VLOOKUP($B77,product!$A$2:$E$60,5)</f>
+        <v>노스페이스</v>
+      </c>
+      <c r="D77">
+        <f ca="1">VLOOKUP($B77,product!$A$2:$E$60,3)</f>
+        <v>400000</v>
+      </c>
+      <c r="E77">
+        <f t="shared" ca="1" si="16"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>도서</v>
+      </c>
+      <c r="B78">
+        <f t="shared" ca="1" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="C78" t="str">
+        <f ca="1">VLOOKUP($B78,product!$A$2:$E$60,5)</f>
+        <v>길벗</v>
+      </c>
+      <c r="D78">
+        <f ca="1">VLOOKUP($B78,product!$A$2:$E$60,3)</f>
+        <v>21000</v>
+      </c>
+      <c r="E78">
+        <f t="shared" ca="1" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>패션</v>
+      </c>
+      <c r="B79">
+        <f t="shared" ca="1" si="14"/>
+        <v>16</v>
+      </c>
+      <c r="C79" t="str">
+        <f ca="1">VLOOKUP($B79,product!$A$2:$E$60,5)</f>
+        <v>디스이즈네버댓</v>
+      </c>
+      <c r="D79">
+        <f ca="1">VLOOKUP($B79,product!$A$2:$E$60,3)</f>
+        <v>31500</v>
+      </c>
+      <c r="E79">
+        <f t="shared" ca="1" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>식품</v>
+      </c>
+      <c r="B80">
+        <f t="shared" ca="1" si="14"/>
+        <v>41</v>
+      </c>
+      <c r="C80" t="str">
+        <f ca="1">VLOOKUP($B80,product!$A$2:$E$60,5)</f>
+        <v>(주)동원엔터프라이즈</v>
+      </c>
+      <c r="D80">
+        <f ca="1">VLOOKUP($B80,product!$A$2:$E$60,3)</f>
+        <v>51600</v>
+      </c>
+      <c r="E80">
+        <f t="shared" ca="1" si="16"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>식품</v>
+      </c>
+      <c r="B81">
+        <f t="shared" ca="1" si="14"/>
+        <v>41</v>
+      </c>
+      <c r="C81" t="str">
+        <f ca="1">VLOOKUP($B81,product!$A$2:$E$60,5)</f>
+        <v>(주)동원엔터프라이즈</v>
+      </c>
+      <c r="D81">
+        <f ca="1">VLOOKUP($B81,product!$A$2:$E$60,3)</f>
+        <v>51600</v>
+      </c>
+      <c r="E81">
+        <f t="shared" ca="1" si="16"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>도서</v>
+      </c>
+      <c r="B82">
+        <f t="shared" ca="1" si="14"/>
+        <v>9</v>
+      </c>
+      <c r="C82" t="str">
+        <f ca="1">VLOOKUP($B82,product!$A$2:$E$60,5)</f>
+        <v>열린책들</v>
+      </c>
+      <c r="D82">
+        <f ca="1">VLOOKUP($B82,product!$A$2:$E$60,3)</f>
+        <v>22000</v>
+      </c>
+      <c r="E82">
+        <f t="shared" ca="1" si="16"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>패션</v>
+      </c>
+      <c r="B83">
+        <f t="shared" ca="1" si="14"/>
+        <v>16</v>
+      </c>
+      <c r="C83" t="str">
+        <f ca="1">VLOOKUP($B83,product!$A$2:$E$60,5)</f>
+        <v>디스이즈네버댓</v>
+      </c>
+      <c r="D83">
+        <f ca="1">VLOOKUP($B83,product!$A$2:$E$60,3)</f>
+        <v>31500</v>
+      </c>
+      <c r="E83">
+        <f t="shared" ca="1" si="16"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>도서</v>
+      </c>
+      <c r="B84">
+        <f t="shared" ca="1" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="C84" t="str">
+        <f ca="1">VLOOKUP($B84,product!$A$2:$E$60,5)</f>
+        <v>열린책들</v>
+      </c>
+      <c r="D84">
+        <f ca="1">VLOOKUP($B84,product!$A$2:$E$60,3)</f>
+        <v>13800</v>
+      </c>
+      <c r="E84">
+        <f t="shared" ca="1" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>식품</v>
+      </c>
+      <c r="B85">
+        <f t="shared" ca="1" si="14"/>
+        <v>46</v>
+      </c>
+      <c r="C85" t="str">
+        <f ca="1">VLOOKUP($B85,product!$A$2:$E$60,5)</f>
+        <v>농협</v>
+      </c>
+      <c r="D85">
+        <f ca="1">VLOOKUP($B85,product!$A$2:$E$60,3)</f>
+        <v>43900</v>
+      </c>
+      <c r="E85">
+        <f t="shared" ca="1" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>리빙</v>
+      </c>
+      <c r="B86">
+        <f t="shared" ca="1" si="14"/>
+        <v>39</v>
+      </c>
+      <c r="C86" t="str">
+        <f ca="1">VLOOKUP($B86,product!$A$2:$E$60,5)</f>
+        <v>모던홈</v>
+      </c>
+      <c r="D86">
+        <f ca="1">VLOOKUP($B86,product!$A$2:$E$60,3)</f>
+        <v>69000</v>
+      </c>
+      <c r="E86">
+        <f t="shared" ca="1" si="16"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>리빙</v>
+      </c>
+      <c r="B87">
+        <f t="shared" ca="1" si="14"/>
+        <v>38</v>
+      </c>
+      <c r="C87" t="str">
+        <f ca="1">VLOOKUP($B87,product!$A$2:$E$60,5)</f>
+        <v>모던홈</v>
+      </c>
+      <c r="D87">
+        <f ca="1">VLOOKUP($B87,product!$A$2:$E$60,3)</f>
+        <v>1100000</v>
+      </c>
+      <c r="E87">
+        <f t="shared" ca="1" si="16"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>도서</v>
+      </c>
+      <c r="B88">
         <f t="shared" ca="1" si="14"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>패션</v>
-      </c>
-      <c r="B69">
-        <f t="shared" ca="1" si="12"/>
-        <v>16</v>
-      </c>
-      <c r="C69" t="str">
-        <f ca="1">VLOOKUP($B69,product!$A$2:$E$60,5)</f>
-        <v>디스이즈네버댓</v>
-      </c>
-      <c r="D69">
-        <f ca="1">VLOOKUP($B69,product!$A$2:$E$60,3)</f>
-        <v>31500</v>
-      </c>
-      <c r="E69">
-        <f t="shared" ca="1" si="14"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>패션</v>
-      </c>
-      <c r="B70">
-        <f t="shared" ca="1" si="12"/>
-        <v>20</v>
-      </c>
-      <c r="C70" t="str">
-        <f ca="1">VLOOKUP($B70,product!$A$2:$E$60,5)</f>
-        <v>나이스</v>
-      </c>
-      <c r="D70">
-        <f ca="1">VLOOKUP($B70,product!$A$2:$E$60,3)</f>
-        <v>239000</v>
-      </c>
-      <c r="E70">
-        <f t="shared" ca="1" si="14"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>식품</v>
-      </c>
-      <c r="B71">
-        <f t="shared" ca="1" si="12"/>
-        <v>47</v>
-      </c>
-      <c r="C71" t="str">
-        <f ca="1">VLOOKUP($B71,product!$A$2:$E$60,5)</f>
-        <v>(주)해맑음푸드</v>
-      </c>
-      <c r="D71">
-        <f ca="1">VLOOKUP($B71,product!$A$2:$E$60,3)</f>
-        <v>14900</v>
-      </c>
-      <c r="E71">
-        <f t="shared" ca="1" si="14"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>식품</v>
-      </c>
-      <c r="B72">
-        <f t="shared" ca="1" si="12"/>
-        <v>46</v>
-      </c>
-      <c r="C72" t="str">
-        <f ca="1">VLOOKUP($B72,product!$A$2:$E$60,5)</f>
-        <v>농협</v>
-      </c>
-      <c r="D72">
-        <f ca="1">VLOOKUP($B72,product!$A$2:$E$60,3)</f>
-        <v>43900</v>
-      </c>
-      <c r="E72">
-        <f t="shared" ca="1" si="14"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>패션</v>
-      </c>
-      <c r="B73">
-        <f t="shared" ca="1" si="12"/>
-        <v>19</v>
-      </c>
-      <c r="C73" t="str">
-        <f ca="1">VLOOKUP($B73,product!$A$2:$E$60,5)</f>
-        <v>나이스</v>
-      </c>
-      <c r="D73">
-        <f ca="1">VLOOKUP($B73,product!$A$2:$E$60,3)</f>
-        <v>115000</v>
-      </c>
-      <c r="E73">
-        <f t="shared" ca="1" si="14"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>패션</v>
-      </c>
-      <c r="B74">
-        <f t="shared" ca="1" si="12"/>
-        <v>11</v>
-      </c>
-      <c r="C74" t="str">
-        <f ca="1">VLOOKUP($B74,product!$A$2:$E$60,5)</f>
-        <v>아디오스</v>
-      </c>
-      <c r="D74">
-        <f ca="1">VLOOKUP($B74,product!$A$2:$E$60,3)</f>
-        <v>200000</v>
-      </c>
-      <c r="E74">
-        <f t="shared" ca="1" si="14"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>식품</v>
-      </c>
-      <c r="B75">
-        <f t="shared" ca="1" si="12"/>
-        <v>45</v>
-      </c>
-      <c r="C75" t="str">
-        <f ca="1">VLOOKUP($B75,product!$A$2:$E$60,5)</f>
-        <v>(주)횡성명품한우유통사업단</v>
-      </c>
-      <c r="D75">
-        <f ca="1">VLOOKUP($B75,product!$A$2:$E$60,3)</f>
-        <v>39500</v>
-      </c>
-      <c r="E75">
-        <f t="shared" ca="1" si="14"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>패션</v>
-      </c>
-      <c r="B76">
-        <f t="shared" ca="1" si="12"/>
-        <v>19</v>
-      </c>
-      <c r="C76" t="str">
-        <f ca="1">VLOOKUP($B76,product!$A$2:$E$60,5)</f>
-        <v>나이스</v>
-      </c>
-      <c r="D76">
-        <f ca="1">VLOOKUP($B76,product!$A$2:$E$60,3)</f>
-        <v>115000</v>
-      </c>
-      <c r="E76">
-        <f t="shared" ca="1" si="14"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>전자기기</v>
-      </c>
-      <c r="B77">
-        <f t="shared" ca="1" si="12"/>
-        <v>56</v>
-      </c>
-      <c r="C77" t="str">
-        <f ca="1">VLOOKUP($B77,product!$A$2:$E$60,5)</f>
-        <v>위니아</v>
-      </c>
-      <c r="D77">
-        <f ca="1">VLOOKUP($B77,product!$A$2:$E$60,3)</f>
-        <v>300000</v>
-      </c>
-      <c r="E77">
-        <f t="shared" ca="1" si="14"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>패션</v>
-      </c>
-      <c r="B78">
-        <f t="shared" ca="1" si="12"/>
-        <v>14</v>
-      </c>
-      <c r="C78" t="str">
-        <f ca="1">VLOOKUP($B78,product!$A$2:$E$60,5)</f>
-        <v>노스페이스</v>
-      </c>
-      <c r="D78">
-        <f ca="1">VLOOKUP($B78,product!$A$2:$E$60,3)</f>
-        <v>62300</v>
-      </c>
-      <c r="E78">
-        <f t="shared" ca="1" si="14"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>공구</v>
-      </c>
-      <c r="B79">
-        <f t="shared" ca="1" si="12"/>
-        <v>23</v>
-      </c>
-      <c r="C79" t="str">
-        <f ca="1">VLOOKUP($B79,product!$A$2:$E$60,5)</f>
-        <v>Bosch</v>
-      </c>
-      <c r="D79">
-        <f ca="1">VLOOKUP($B79,product!$A$2:$E$60,3)</f>
-        <v>194200</v>
-      </c>
-      <c r="E79">
-        <f t="shared" ca="1" si="14"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>전자기기</v>
-      </c>
-      <c r="B80">
-        <f t="shared" ca="1" si="12"/>
-        <v>54</v>
-      </c>
-      <c r="C80" t="str">
-        <f ca="1">VLOOKUP($B80,product!$A$2:$E$60,5)</f>
-        <v>삼성전자</v>
-      </c>
-      <c r="D80">
-        <f ca="1">VLOOKUP($B80,product!$A$2:$E$60,3)</f>
-        <v>958000</v>
-      </c>
-      <c r="E80">
-        <f t="shared" ca="1" si="14"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>리빙</v>
-      </c>
-      <c r="B81">
-        <f t="shared" ca="1" si="12"/>
-        <v>38</v>
-      </c>
-      <c r="C81" t="str">
-        <f ca="1">VLOOKUP($B81,product!$A$2:$E$60,5)</f>
-        <v>모던홈</v>
-      </c>
-      <c r="D81">
-        <f ca="1">VLOOKUP($B81,product!$A$2:$E$60,3)</f>
-        <v>1100000</v>
-      </c>
-      <c r="E81">
-        <f t="shared" ca="1" si="14"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>패션</v>
-      </c>
-      <c r="B82">
-        <f t="shared" ca="1" si="12"/>
-        <v>11</v>
-      </c>
-      <c r="C82" t="str">
-        <f ca="1">VLOOKUP($B82,product!$A$2:$E$60,5)</f>
-        <v>아디오스</v>
-      </c>
-      <c r="D82">
-        <f ca="1">VLOOKUP($B82,product!$A$2:$E$60,3)</f>
-        <v>200000</v>
-      </c>
-      <c r="E82">
-        <f t="shared" ca="1" si="14"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>전자기기</v>
-      </c>
-      <c r="B83">
-        <f t="shared" ca="1" si="12"/>
-        <v>57</v>
-      </c>
-      <c r="C83" t="str">
-        <f ca="1">VLOOKUP($B83,product!$A$2:$E$60,5)</f>
-        <v>알파스캔</v>
-      </c>
-      <c r="D83">
-        <f ca="1">VLOOKUP($B83,product!$A$2:$E$60,3)</f>
-        <v>419000</v>
-      </c>
-      <c r="E83">
-        <f t="shared" ca="1" si="14"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>리빙</v>
-      </c>
-      <c r="B84">
-        <f t="shared" ca="1" si="12"/>
-        <v>38</v>
-      </c>
-      <c r="C84" t="str">
-        <f ca="1">VLOOKUP($B84,product!$A$2:$E$60,5)</f>
-        <v>모던홈</v>
-      </c>
-      <c r="D84">
-        <f ca="1">VLOOKUP($B84,product!$A$2:$E$60,3)</f>
-        <v>1100000</v>
-      </c>
-      <c r="E84">
-        <f t="shared" ca="1" si="14"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>도서</v>
-      </c>
-      <c r="B85">
-        <f t="shared" ca="1" si="12"/>
-        <v>3</v>
-      </c>
-      <c r="C85" t="str">
-        <f ca="1">VLOOKUP($B85,product!$A$2:$E$60,5)</f>
-        <v>길벗</v>
-      </c>
-      <c r="D85">
-        <f ca="1">VLOOKUP($B85,product!$A$2:$E$60,3)</f>
-        <v>24000</v>
-      </c>
-      <c r="E85">
-        <f t="shared" ca="1" si="14"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>식품</v>
-      </c>
-      <c r="B86">
-        <f t="shared" ca="1" si="12"/>
-        <v>47</v>
-      </c>
-      <c r="C86" t="str">
-        <f ca="1">VLOOKUP($B86,product!$A$2:$E$60,5)</f>
-        <v>(주)해맑음푸드</v>
-      </c>
-      <c r="D86">
-        <f ca="1">VLOOKUP($B86,product!$A$2:$E$60,3)</f>
-        <v>14900</v>
-      </c>
-      <c r="E86">
-        <f t="shared" ca="1" si="14"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>공구</v>
-      </c>
-      <c r="B87">
-        <f t="shared" ca="1" si="12"/>
-        <v>24</v>
-      </c>
-      <c r="C87" t="str">
-        <f ca="1">VLOOKUP($B87,product!$A$2:$E$60,5)</f>
-        <v>Bosch</v>
-      </c>
-      <c r="D87">
-        <f ca="1">VLOOKUP($B87,product!$A$2:$E$60,3)</f>
-        <v>52030</v>
-      </c>
-      <c r="E87">
-        <f t="shared" ca="1" si="14"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>전자기기</v>
-      </c>
-      <c r="B88">
-        <f t="shared" ca="1" si="12"/>
-        <v>54</v>
-      </c>
       <c r="C88" t="str">
         <f ca="1">VLOOKUP($B88,product!$A$2:$E$60,5)</f>
-        <v>삼성전자</v>
+        <v>길벗</v>
       </c>
       <c r="D88">
         <f ca="1">VLOOKUP($B88,product!$A$2:$E$60,3)</f>
-        <v>958000</v>
+        <v>17700</v>
       </c>
       <c r="E88">
-        <f t="shared" ca="1" si="14"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v>공구</v>
       </c>
       <c r="B89">
-        <f t="shared" ca="1" si="12"/>
-        <v>23</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>30</v>
       </c>
       <c r="C89" t="str">
         <f ca="1">VLOOKUP($B89,product!$A$2:$E$60,5)</f>
@@ -3662,274 +3671,2474 @@
       </c>
       <c r="D89">
         <f ca="1">VLOOKUP($B89,product!$A$2:$E$60,3)</f>
-        <v>194200</v>
+        <v>934410</v>
       </c>
       <c r="E89">
-        <f t="shared" ca="1" si="14"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>공구</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>리빙</v>
       </c>
       <c r="B90">
-        <f t="shared" ca="1" si="12"/>
-        <v>24</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>40</v>
       </c>
       <c r="C90" t="str">
         <f ca="1">VLOOKUP($B90,product!$A$2:$E$60,5)</f>
-        <v>Bosch</v>
+        <v>팔도</v>
       </c>
       <c r="D90">
         <f ca="1">VLOOKUP($B90,product!$A$2:$E$60,3)</f>
-        <v>52030</v>
+        <v>14400</v>
       </c>
       <c r="E90">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v>식품</v>
       </c>
       <c r="B91">
-        <f t="shared" ca="1" si="12"/>
-        <v>49</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>45</v>
       </c>
       <c r="C91" t="str">
         <f ca="1">VLOOKUP($B91,product!$A$2:$E$60,5)</f>
-        <v>풀무원</v>
+        <v>(주)횡성명품한우유통사업단</v>
       </c>
       <c r="D91">
         <f ca="1">VLOOKUP($B91,product!$A$2:$E$60,3)</f>
-        <v>7800</v>
+        <v>39500</v>
       </c>
       <c r="E91">
-        <f t="shared" ca="1" si="14"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>패션</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>전자기기</v>
       </c>
       <c r="B92">
-        <f t="shared" ca="1" si="12"/>
-        <v>19</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>52</v>
       </c>
       <c r="C92" t="str">
         <f ca="1">VLOOKUP($B92,product!$A$2:$E$60,5)</f>
-        <v>나이스</v>
+        <v>위니아</v>
       </c>
       <c r="D92">
         <f ca="1">VLOOKUP($B92,product!$A$2:$E$60,3)</f>
-        <v>115000</v>
+        <v>600000</v>
       </c>
       <c r="E92">
-        <f t="shared" ca="1" si="14"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>공구</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>식품</v>
       </c>
       <c r="B93">
-        <f t="shared" ca="1" si="12"/>
-        <v>22</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>49</v>
       </c>
       <c r="C93" t="str">
         <f ca="1">VLOOKUP($B93,product!$A$2:$E$60,5)</f>
-        <v>Bosch</v>
+        <v>풀무원</v>
       </c>
       <c r="D93">
         <f ca="1">VLOOKUP($B93,product!$A$2:$E$60,3)</f>
-        <v>134000</v>
+        <v>7800</v>
       </c>
       <c r="E93">
-        <f t="shared" ca="1" si="14"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>패션</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>리빙</v>
       </c>
       <c r="B94">
-        <f t="shared" ca="1" si="12"/>
-        <v>14</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>31</v>
       </c>
       <c r="C94" t="str">
         <f ca="1">VLOOKUP($B94,product!$A$2:$E$60,5)</f>
-        <v>노스페이스</v>
+        <v>모던홈</v>
       </c>
       <c r="D94">
         <f ca="1">VLOOKUP($B94,product!$A$2:$E$60,3)</f>
-        <v>62300</v>
+        <v>45000</v>
       </c>
       <c r="E94">
-        <f t="shared" ca="1" si="14"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>식품</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>도서</v>
       </c>
       <c r="B95">
-        <f t="shared" ca="1" si="12"/>
-        <v>42</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>1</v>
       </c>
       <c r="C95" t="str">
         <f ca="1">VLOOKUP($B95,product!$A$2:$E$60,5)</f>
-        <v>도드람양돈협동조합</v>
+        <v>길벗</v>
       </c>
       <c r="D95">
         <f ca="1">VLOOKUP($B95,product!$A$2:$E$60,3)</f>
+        <v>29000</v>
+      </c>
+      <c r="E95">
+        <f t="shared" ca="1" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>리빙</v>
+      </c>
+      <c r="B96">
+        <f t="shared" ca="1" si="14"/>
+        <v>33</v>
+      </c>
+      <c r="C96" t="str">
+        <f ca="1">VLOOKUP($B96,product!$A$2:$E$60,5)</f>
+        <v>모던홈</v>
+      </c>
+      <c r="D96">
+        <f ca="1">VLOOKUP($B96,product!$A$2:$E$60,3)</f>
+        <v>800000</v>
+      </c>
+      <c r="E96">
+        <f t="shared" ca="1" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>패션</v>
+      </c>
+      <c r="B97">
+        <f t="shared" ca="1" si="14"/>
+        <v>15</v>
+      </c>
+      <c r="C97" t="str">
+        <f ca="1">VLOOKUP($B97,product!$A$2:$E$60,5)</f>
+        <v>디스이즈네버댓</v>
+      </c>
+      <c r="D97">
+        <f ca="1">VLOOKUP($B97,product!$A$2:$E$60,3)</f>
+        <v>118300</v>
+      </c>
+      <c r="E97">
+        <f t="shared" ca="1" si="16"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>리빙</v>
+      </c>
+      <c r="B98">
+        <f t="shared" ca="1" si="14"/>
+        <v>35</v>
+      </c>
+      <c r="C98" t="str">
+        <f ca="1">VLOOKUP($B98,product!$A$2:$E$60,5)</f>
+        <v>모던홈</v>
+      </c>
+      <c r="D98">
+        <f ca="1">VLOOKUP($B98,product!$A$2:$E$60,3)</f>
+        <v>150000</v>
+      </c>
+      <c r="E98">
+        <f t="shared" ca="1" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>식품</v>
+      </c>
+      <c r="B99">
+        <f t="shared" ca="1" si="14"/>
+        <v>42</v>
+      </c>
+      <c r="C99" t="str">
+        <f ca="1">VLOOKUP($B99,product!$A$2:$E$60,5)</f>
+        <v>도드람양돈협동조합</v>
+      </c>
+      <c r="D99">
+        <f ca="1">VLOOKUP($B99,product!$A$2:$E$60,3)</f>
         <v>28000</v>
       </c>
-      <c r="E95">
+      <c r="E99">
+        <f t="shared" ca="1" si="16"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>도서</v>
+      </c>
+      <c r="B100">
         <f t="shared" ca="1" si="14"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>패션</v>
-      </c>
-      <c r="B96">
-        <f t="shared" ca="1" si="12"/>
-        <v>13</v>
-      </c>
-      <c r="C96" t="str">
-        <f ca="1">VLOOKUP($B96,product!$A$2:$E$60,5)</f>
-        <v>노스페이스</v>
-      </c>
-      <c r="D96">
-        <f ca="1">VLOOKUP($B96,product!$A$2:$E$60,3)</f>
-        <v>400000</v>
-      </c>
-      <c r="E96">
-        <f t="shared" ca="1" si="14"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>전자기기</v>
-      </c>
-      <c r="B97">
-        <f t="shared" ca="1" si="12"/>
-        <v>57</v>
-      </c>
-      <c r="C97" t="str">
-        <f ca="1">VLOOKUP($B97,product!$A$2:$E$60,5)</f>
-        <v>알파스캔</v>
-      </c>
-      <c r="D97">
-        <f ca="1">VLOOKUP($B97,product!$A$2:$E$60,3)</f>
-        <v>419000</v>
-      </c>
-      <c r="E97">
-        <f t="shared" ca="1" si="14"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>전자기기</v>
-      </c>
-      <c r="B98">
-        <f t="shared" ca="1" si="12"/>
-        <v>57</v>
-      </c>
-      <c r="C98" t="str">
-        <f ca="1">VLOOKUP($B98,product!$A$2:$E$60,5)</f>
-        <v>알파스캔</v>
-      </c>
-      <c r="D98">
-        <f ca="1">VLOOKUP($B98,product!$A$2:$E$60,3)</f>
-        <v>419000</v>
-      </c>
-      <c r="E98">
-        <f t="shared" ca="1" si="14"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>식품</v>
-      </c>
-      <c r="B99">
-        <f t="shared" ca="1" si="12"/>
-        <v>50</v>
-      </c>
-      <c r="C99" t="str">
-        <f ca="1">VLOOKUP($B99,product!$A$2:$E$60,5)</f>
-        <v>삼성전자</v>
-      </c>
-      <c r="D99">
-        <f ca="1">VLOOKUP($B99,product!$A$2:$E$60,3)</f>
-        <v>700000</v>
-      </c>
-      <c r="E99">
-        <f t="shared" ca="1" si="14"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>패션</v>
-      </c>
-      <c r="B100">
-        <f t="shared" ca="1" si="12"/>
-        <v>11</v>
-      </c>
       <c r="C100" t="str">
         <f ca="1">VLOOKUP($B100,product!$A$2:$E$60,5)</f>
-        <v>아디오스</v>
+        <v>길벗</v>
       </c>
       <c r="D100">
         <f ca="1">VLOOKUP($B100,product!$A$2:$E$60,3)</f>
-        <v>200000</v>
+        <v>29000</v>
       </c>
       <c r="E100">
-        <f t="shared" ca="1" si="14"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>3</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>전자기기</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>패션</v>
       </c>
       <c r="B101">
-        <f t="shared" ca="1" si="12"/>
-        <v>59</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>13</v>
       </c>
       <c r="C101" t="str">
         <f ca="1">VLOOKUP($B101,product!$A$2:$E$60,5)</f>
-        <v>LG전자</v>
+        <v>노스페이스</v>
       </c>
       <c r="D101">
         <f ca="1">VLOOKUP($B101,product!$A$2:$E$60,3)</f>
+        <v>400000</v>
+      </c>
+      <c r="E101">
+        <f t="shared" ca="1" si="16"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>리빙</v>
+      </c>
+      <c r="B102">
+        <f t="shared" ref="B102:B165" ca="1" si="17">IF(A102=$G$2,RANDBETWEEN(1,10),IF(A102=$G$3,RANDBETWEEN(11,20),IF(A102=$G$4,RANDBETWEEN(21,30),IF(A102=$G$5,RANDBETWEEN(31,40),IF(A102=$G$6,RANDBETWEEN(41,50),IF(A102=$G$7,RANDBETWEEN(50,59)))))))</f>
+        <v>39</v>
+      </c>
+      <c r="C102" t="str">
+        <f ca="1">VLOOKUP($B102,product!$A$2:$E$60,5)</f>
+        <v>모던홈</v>
+      </c>
+      <c r="D102">
+        <f ca="1">VLOOKUP($B102,product!$A$2:$E$60,3)</f>
+        <v>69000</v>
+      </c>
+      <c r="E102">
+        <f t="shared" ca="1" si="16"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>리빙</v>
+      </c>
+      <c r="B103">
+        <f t="shared" ca="1" si="17"/>
+        <v>31</v>
+      </c>
+      <c r="C103" t="str">
+        <f ca="1">VLOOKUP($B103,product!$A$2:$E$60,5)</f>
+        <v>모던홈</v>
+      </c>
+      <c r="D103">
+        <f ca="1">VLOOKUP($B103,product!$A$2:$E$60,3)</f>
+        <v>45000</v>
+      </c>
+      <c r="E103">
+        <f t="shared" ca="1" si="16"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>리빙</v>
+      </c>
+      <c r="B104">
+        <f t="shared" ca="1" si="17"/>
+        <v>39</v>
+      </c>
+      <c r="C104" t="str">
+        <f ca="1">VLOOKUP($B104,product!$A$2:$E$60,5)</f>
+        <v>모던홈</v>
+      </c>
+      <c r="D104">
+        <f ca="1">VLOOKUP($B104,product!$A$2:$E$60,3)</f>
+        <v>69000</v>
+      </c>
+      <c r="E104">
+        <f t="shared" ca="1" si="16"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>전자기기</v>
+      </c>
+      <c r="B105">
+        <f t="shared" ca="1" si="17"/>
+        <v>50</v>
+      </c>
+      <c r="C105" t="str">
+        <f ca="1">VLOOKUP($B105,product!$A$2:$E$60,5)</f>
+        <v>삼성전자</v>
+      </c>
+      <c r="D105">
+        <f ca="1">VLOOKUP($B105,product!$A$2:$E$60,3)</f>
+        <v>700000</v>
+      </c>
+      <c r="E105">
+        <f t="shared" ca="1" si="16"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>식품</v>
+      </c>
+      <c r="B106">
+        <f t="shared" ca="1" si="17"/>
+        <v>48</v>
+      </c>
+      <c r="C106" t="str">
+        <f ca="1">VLOOKUP($B106,product!$A$2:$E$60,5)</f>
+        <v>농심</v>
+      </c>
+      <c r="D106">
+        <f ca="1">VLOOKUP($B106,product!$A$2:$E$60,3)</f>
+        <v>39600</v>
+      </c>
+      <c r="E106">
+        <f t="shared" ca="1" si="16"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>도서</v>
+      </c>
+      <c r="B107">
+        <f t="shared" ca="1" si="17"/>
+        <v>8</v>
+      </c>
+      <c r="C107" t="str">
+        <f ca="1">VLOOKUP($B107,product!$A$2:$E$60,5)</f>
+        <v>열린책들</v>
+      </c>
+      <c r="D107">
+        <f ca="1">VLOOKUP($B107,product!$A$2:$E$60,3)</f>
+        <v>22000</v>
+      </c>
+      <c r="E107">
+        <f t="shared" ca="1" si="16"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>리빙</v>
+      </c>
+      <c r="B108">
+        <f t="shared" ca="1" si="17"/>
+        <v>38</v>
+      </c>
+      <c r="C108" t="str">
+        <f ca="1">VLOOKUP($B108,product!$A$2:$E$60,5)</f>
+        <v>모던홈</v>
+      </c>
+      <c r="D108">
+        <f ca="1">VLOOKUP($B108,product!$A$2:$E$60,3)</f>
+        <v>1100000</v>
+      </c>
+      <c r="E108">
+        <f t="shared" ca="1" si="16"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>공구</v>
+      </c>
+      <c r="B109">
+        <f t="shared" ca="1" si="17"/>
+        <v>29</v>
+      </c>
+      <c r="C109" t="str">
+        <f ca="1">VLOOKUP($B109,product!$A$2:$E$60,5)</f>
+        <v>Bosch</v>
+      </c>
+      <c r="D109">
+        <f ca="1">VLOOKUP($B109,product!$A$2:$E$60,3)</f>
+        <v>185780</v>
+      </c>
+      <c r="E109">
+        <f t="shared" ca="1" si="16"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>도서</v>
+      </c>
+      <c r="B110">
+        <f t="shared" ca="1" si="17"/>
+        <v>10</v>
+      </c>
+      <c r="C110" t="str">
+        <f ca="1">VLOOKUP($B110,product!$A$2:$E$60,5)</f>
+        <v>열린책들</v>
+      </c>
+      <c r="D110">
+        <f ca="1">VLOOKUP($B110,product!$A$2:$E$60,3)</f>
+        <v>12800</v>
+      </c>
+      <c r="E110">
+        <f t="shared" ca="1" si="16"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>식품</v>
+      </c>
+      <c r="B111">
+        <f t="shared" ca="1" si="17"/>
+        <v>43</v>
+      </c>
+      <c r="C111" t="str">
+        <f ca="1">VLOOKUP($B111,product!$A$2:$E$60,5)</f>
+        <v>롯데칠성음료</v>
+      </c>
+      <c r="D111">
+        <f ca="1">VLOOKUP($B111,product!$A$2:$E$60,3)</f>
+        <v>26000</v>
+      </c>
+      <c r="E111">
+        <f t="shared" ca="1" si="16"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>패션</v>
+      </c>
+      <c r="B112">
+        <f t="shared" ca="1" si="17"/>
+        <v>19</v>
+      </c>
+      <c r="C112" t="str">
+        <f ca="1">VLOOKUP($B112,product!$A$2:$E$60,5)</f>
+        <v>나이스</v>
+      </c>
+      <c r="D112">
+        <f ca="1">VLOOKUP($B112,product!$A$2:$E$60,3)</f>
+        <v>115000</v>
+      </c>
+      <c r="E112">
+        <f t="shared" ca="1" si="16"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>리빙</v>
+      </c>
+      <c r="B113">
+        <f t="shared" ca="1" si="17"/>
+        <v>31</v>
+      </c>
+      <c r="C113" t="str">
+        <f ca="1">VLOOKUP($B113,product!$A$2:$E$60,5)</f>
+        <v>모던홈</v>
+      </c>
+      <c r="D113">
+        <f ca="1">VLOOKUP($B113,product!$A$2:$E$60,3)</f>
+        <v>45000</v>
+      </c>
+      <c r="E113">
+        <f t="shared" ca="1" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>도서</v>
+      </c>
+      <c r="B114">
+        <f t="shared" ca="1" si="17"/>
+        <v>10</v>
+      </c>
+      <c r="C114" t="str">
+        <f ca="1">VLOOKUP($B114,product!$A$2:$E$60,5)</f>
+        <v>열린책들</v>
+      </c>
+      <c r="D114">
+        <f ca="1">VLOOKUP($B114,product!$A$2:$E$60,3)</f>
+        <v>12800</v>
+      </c>
+      <c r="E114">
+        <f t="shared" ca="1" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>리빙</v>
+      </c>
+      <c r="B115">
+        <f t="shared" ca="1" si="17"/>
+        <v>35</v>
+      </c>
+      <c r="C115" t="str">
+        <f ca="1">VLOOKUP($B115,product!$A$2:$E$60,5)</f>
+        <v>모던홈</v>
+      </c>
+      <c r="D115">
+        <f ca="1">VLOOKUP($B115,product!$A$2:$E$60,3)</f>
+        <v>150000</v>
+      </c>
+      <c r="E115">
+        <f t="shared" ca="1" si="16"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>리빙</v>
+      </c>
+      <c r="B116">
+        <f t="shared" ca="1" si="17"/>
+        <v>39</v>
+      </c>
+      <c r="C116" t="str">
+        <f ca="1">VLOOKUP($B116,product!$A$2:$E$60,5)</f>
+        <v>모던홈</v>
+      </c>
+      <c r="D116">
+        <f ca="1">VLOOKUP($B116,product!$A$2:$E$60,3)</f>
+        <v>69000</v>
+      </c>
+      <c r="E116">
+        <f t="shared" ca="1" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>식품</v>
+      </c>
+      <c r="B117">
+        <f t="shared" ca="1" si="17"/>
+        <v>43</v>
+      </c>
+      <c r="C117" t="str">
+        <f ca="1">VLOOKUP($B117,product!$A$2:$E$60,5)</f>
+        <v>롯데칠성음료</v>
+      </c>
+      <c r="D117">
+        <f ca="1">VLOOKUP($B117,product!$A$2:$E$60,3)</f>
+        <v>26000</v>
+      </c>
+      <c r="E117">
+        <f t="shared" ca="1" si="16"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>리빙</v>
+      </c>
+      <c r="B118">
+        <f t="shared" ca="1" si="17"/>
+        <v>35</v>
+      </c>
+      <c r="C118" t="str">
+        <f ca="1">VLOOKUP($B118,product!$A$2:$E$60,5)</f>
+        <v>모던홈</v>
+      </c>
+      <c r="D118">
+        <f ca="1">VLOOKUP($B118,product!$A$2:$E$60,3)</f>
+        <v>150000</v>
+      </c>
+      <c r="E118">
+        <f t="shared" ca="1" si="16"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>패션</v>
+      </c>
+      <c r="B119">
+        <f t="shared" ca="1" si="17"/>
+        <v>13</v>
+      </c>
+      <c r="C119" t="str">
+        <f ca="1">VLOOKUP($B119,product!$A$2:$E$60,5)</f>
+        <v>노스페이스</v>
+      </c>
+      <c r="D119">
+        <f ca="1">VLOOKUP($B119,product!$A$2:$E$60,3)</f>
+        <v>400000</v>
+      </c>
+      <c r="E119">
+        <f t="shared" ca="1" si="16"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>공구</v>
+      </c>
+      <c r="B120">
+        <f t="shared" ca="1" si="17"/>
+        <v>21</v>
+      </c>
+      <c r="C120" t="str">
+        <f ca="1">VLOOKUP($B120,product!$A$2:$E$60,5)</f>
+        <v>Bosch</v>
+      </c>
+      <c r="D120">
+        <f ca="1">VLOOKUP($B120,product!$A$2:$E$60,3)</f>
+        <v>98270</v>
+      </c>
+      <c r="E120">
+        <f t="shared" ca="1" si="16"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>패션</v>
+      </c>
+      <c r="B121">
+        <f t="shared" ca="1" si="17"/>
+        <v>12</v>
+      </c>
+      <c r="C121" t="str">
+        <f ca="1">VLOOKUP($B121,product!$A$2:$E$60,5)</f>
+        <v>아디오스</v>
+      </c>
+      <c r="D121">
+        <f ca="1">VLOOKUP($B121,product!$A$2:$E$60,3)</f>
+        <v>139000</v>
+      </c>
+      <c r="E121">
+        <f t="shared" ca="1" si="16"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>식품</v>
+      </c>
+      <c r="B122">
+        <f t="shared" ca="1" si="17"/>
+        <v>50</v>
+      </c>
+      <c r="C122" t="str">
+        <f ca="1">VLOOKUP($B122,product!$A$2:$E$60,5)</f>
+        <v>삼성전자</v>
+      </c>
+      <c r="D122">
+        <f ca="1">VLOOKUP($B122,product!$A$2:$E$60,3)</f>
+        <v>700000</v>
+      </c>
+      <c r="E122">
+        <f t="shared" ca="1" si="16"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>패션</v>
+      </c>
+      <c r="B123">
+        <f t="shared" ca="1" si="17"/>
+        <v>12</v>
+      </c>
+      <c r="C123" t="str">
+        <f ca="1">VLOOKUP($B123,product!$A$2:$E$60,5)</f>
+        <v>아디오스</v>
+      </c>
+      <c r="D123">
+        <f ca="1">VLOOKUP($B123,product!$A$2:$E$60,3)</f>
+        <v>139000</v>
+      </c>
+      <c r="E123">
+        <f t="shared" ca="1" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>리빙</v>
+      </c>
+      <c r="B124">
+        <f t="shared" ca="1" si="17"/>
+        <v>35</v>
+      </c>
+      <c r="C124" t="str">
+        <f ca="1">VLOOKUP($B124,product!$A$2:$E$60,5)</f>
+        <v>모던홈</v>
+      </c>
+      <c r="D124">
+        <f ca="1">VLOOKUP($B124,product!$A$2:$E$60,3)</f>
+        <v>150000</v>
+      </c>
+      <c r="E124">
+        <f t="shared" ca="1" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>리빙</v>
+      </c>
+      <c r="B125">
+        <f t="shared" ca="1" si="17"/>
+        <v>38</v>
+      </c>
+      <c r="C125" t="str">
+        <f ca="1">VLOOKUP($B125,product!$A$2:$E$60,5)</f>
+        <v>모던홈</v>
+      </c>
+      <c r="D125">
+        <f ca="1">VLOOKUP($B125,product!$A$2:$E$60,3)</f>
+        <v>1100000</v>
+      </c>
+      <c r="E125">
+        <f t="shared" ca="1" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>식품</v>
+      </c>
+      <c r="B126">
+        <f t="shared" ca="1" si="17"/>
+        <v>50</v>
+      </c>
+      <c r="C126" t="str">
+        <f ca="1">VLOOKUP($B126,product!$A$2:$E$60,5)</f>
+        <v>삼성전자</v>
+      </c>
+      <c r="D126">
+        <f ca="1">VLOOKUP($B126,product!$A$2:$E$60,3)</f>
+        <v>700000</v>
+      </c>
+      <c r="E126">
+        <f t="shared" ca="1" si="16"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>리빙</v>
+      </c>
+      <c r="B127">
+        <f t="shared" ca="1" si="17"/>
+        <v>37</v>
+      </c>
+      <c r="C127" t="str">
+        <f ca="1">VLOOKUP($B127,product!$A$2:$E$60,5)</f>
+        <v>모던홈</v>
+      </c>
+      <c r="D127">
+        <f ca="1">VLOOKUP($B127,product!$A$2:$E$60,3)</f>
+        <v>150000</v>
+      </c>
+      <c r="E127">
+        <f t="shared" ca="1" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>리빙</v>
+      </c>
+      <c r="B128">
+        <f t="shared" ca="1" si="17"/>
+        <v>36</v>
+      </c>
+      <c r="C128" t="str">
+        <f ca="1">VLOOKUP($B128,product!$A$2:$E$60,5)</f>
+        <v>모던홈</v>
+      </c>
+      <c r="D128">
+        <f ca="1">VLOOKUP($B128,product!$A$2:$E$60,3)</f>
+        <v>700000</v>
+      </c>
+      <c r="E128">
+        <f t="shared" ca="1" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>패션</v>
+      </c>
+      <c r="B129">
+        <f t="shared" ca="1" si="17"/>
+        <v>16</v>
+      </c>
+      <c r="C129" t="str">
+        <f ca="1">VLOOKUP($B129,product!$A$2:$E$60,5)</f>
+        <v>디스이즈네버댓</v>
+      </c>
+      <c r="D129">
+        <f ca="1">VLOOKUP($B129,product!$A$2:$E$60,3)</f>
+        <v>31500</v>
+      </c>
+      <c r="E129">
+        <f t="shared" ca="1" si="16"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>식품</v>
+      </c>
+      <c r="B130">
+        <f t="shared" ca="1" si="17"/>
+        <v>48</v>
+      </c>
+      <c r="C130" t="str">
+        <f ca="1">VLOOKUP($B130,product!$A$2:$E$60,5)</f>
+        <v>농심</v>
+      </c>
+      <c r="D130">
+        <f ca="1">VLOOKUP($B130,product!$A$2:$E$60,3)</f>
+        <v>39600</v>
+      </c>
+      <c r="E130">
+        <f t="shared" ca="1" si="16"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131" t="str">
+        <f t="shared" ref="A131:A194" ca="1" si="18">INDEX($G$2:$G$7,MATCH(RAND(),$I$2:$I$7))</f>
+        <v>리빙</v>
+      </c>
+      <c r="B131">
+        <f t="shared" ca="1" si="17"/>
+        <v>37</v>
+      </c>
+      <c r="C131" t="str">
+        <f ca="1">VLOOKUP($B131,product!$A$2:$E$60,5)</f>
+        <v>모던홈</v>
+      </c>
+      <c r="D131">
+        <f ca="1">VLOOKUP($B131,product!$A$2:$E$60,3)</f>
+        <v>150000</v>
+      </c>
+      <c r="E131">
+        <f t="shared" ref="E131:E194" ca="1" si="19">INDEX($G$10:$G$12,MATCH(RAND(),$I$10:$I$12))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>패션</v>
+      </c>
+      <c r="B132">
+        <f t="shared" ca="1" si="17"/>
+        <v>17</v>
+      </c>
+      <c r="C132" t="str">
+        <f ca="1">VLOOKUP($B132,product!$A$2:$E$60,5)</f>
+        <v>아구찜</v>
+      </c>
+      <c r="D132">
+        <f ca="1">VLOOKUP($B132,product!$A$2:$E$60,3)</f>
+        <v>4900000</v>
+      </c>
+      <c r="E132">
+        <f t="shared" ca="1" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>패션</v>
+      </c>
+      <c r="B133">
+        <f t="shared" ca="1" si="17"/>
+        <v>11</v>
+      </c>
+      <c r="C133" t="str">
+        <f ca="1">VLOOKUP($B133,product!$A$2:$E$60,5)</f>
+        <v>아디오스</v>
+      </c>
+      <c r="D133">
+        <f ca="1">VLOOKUP($B133,product!$A$2:$E$60,3)</f>
+        <v>200000</v>
+      </c>
+      <c r="E133">
+        <f t="shared" ca="1" si="19"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>리빙</v>
+      </c>
+      <c r="B134">
+        <f t="shared" ca="1" si="17"/>
+        <v>31</v>
+      </c>
+      <c r="C134" t="str">
+        <f ca="1">VLOOKUP($B134,product!$A$2:$E$60,5)</f>
+        <v>모던홈</v>
+      </c>
+      <c r="D134">
+        <f ca="1">VLOOKUP($B134,product!$A$2:$E$60,3)</f>
+        <v>45000</v>
+      </c>
+      <c r="E134">
+        <f t="shared" ca="1" si="19"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>식품</v>
+      </c>
+      <c r="B135">
+        <f t="shared" ca="1" si="17"/>
+        <v>43</v>
+      </c>
+      <c r="C135" t="str">
+        <f ca="1">VLOOKUP($B135,product!$A$2:$E$60,5)</f>
+        <v>롯데칠성음료</v>
+      </c>
+      <c r="D135">
+        <f ca="1">VLOOKUP($B135,product!$A$2:$E$60,3)</f>
+        <v>26000</v>
+      </c>
+      <c r="E135">
+        <f t="shared" ca="1" si="19"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>식품</v>
+      </c>
+      <c r="B136">
+        <f t="shared" ca="1" si="17"/>
+        <v>48</v>
+      </c>
+      <c r="C136" t="str">
+        <f ca="1">VLOOKUP($B136,product!$A$2:$E$60,5)</f>
+        <v>농심</v>
+      </c>
+      <c r="D136">
+        <f ca="1">VLOOKUP($B136,product!$A$2:$E$60,3)</f>
+        <v>39600</v>
+      </c>
+      <c r="E136">
+        <f t="shared" ca="1" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>식품</v>
+      </c>
+      <c r="B137">
+        <f t="shared" ca="1" si="17"/>
+        <v>45</v>
+      </c>
+      <c r="C137" t="str">
+        <f ca="1">VLOOKUP($B137,product!$A$2:$E$60,5)</f>
+        <v>(주)횡성명품한우유통사업단</v>
+      </c>
+      <c r="D137">
+        <f ca="1">VLOOKUP($B137,product!$A$2:$E$60,3)</f>
+        <v>39500</v>
+      </c>
+      <c r="E137">
+        <f t="shared" ca="1" si="19"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>도서</v>
+      </c>
+      <c r="B138">
+        <f t="shared" ca="1" si="17"/>
+        <v>10</v>
+      </c>
+      <c r="C138" t="str">
+        <f ca="1">VLOOKUP($B138,product!$A$2:$E$60,5)</f>
+        <v>열린책들</v>
+      </c>
+      <c r="D138">
+        <f ca="1">VLOOKUP($B138,product!$A$2:$E$60,3)</f>
+        <v>12800</v>
+      </c>
+      <c r="E138">
+        <f t="shared" ca="1" si="19"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>리빙</v>
+      </c>
+      <c r="B139">
+        <f t="shared" ca="1" si="17"/>
+        <v>36</v>
+      </c>
+      <c r="C139" t="str">
+        <f ca="1">VLOOKUP($B139,product!$A$2:$E$60,5)</f>
+        <v>모던홈</v>
+      </c>
+      <c r="D139">
+        <f ca="1">VLOOKUP($B139,product!$A$2:$E$60,3)</f>
+        <v>700000</v>
+      </c>
+      <c r="E139">
+        <f t="shared" ca="1" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>전자기기</v>
+      </c>
+      <c r="B140">
+        <f t="shared" ca="1" si="17"/>
+        <v>51</v>
+      </c>
+      <c r="C140" t="str">
+        <f ca="1">VLOOKUP($B140,product!$A$2:$E$60,5)</f>
+        <v>삼성전자</v>
+      </c>
+      <c r="D140">
+        <f ca="1">VLOOKUP($B140,product!$A$2:$E$60,3)</f>
+        <v>350000</v>
+      </c>
+      <c r="E140">
+        <f t="shared" ca="1" si="19"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>도서</v>
+      </c>
+      <c r="B141">
+        <f t="shared" ca="1" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="C141" t="str">
+        <f ca="1">VLOOKUP($B141,product!$A$2:$E$60,5)</f>
+        <v>길벗</v>
+      </c>
+      <c r="D141">
+        <f ca="1">VLOOKUP($B141,product!$A$2:$E$60,3)</f>
+        <v>21000</v>
+      </c>
+      <c r="E141">
+        <f t="shared" ca="1" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>식품</v>
+      </c>
+      <c r="B142">
+        <f t="shared" ca="1" si="17"/>
+        <v>41</v>
+      </c>
+      <c r="C142" t="str">
+        <f ca="1">VLOOKUP($B142,product!$A$2:$E$60,5)</f>
+        <v>(주)동원엔터프라이즈</v>
+      </c>
+      <c r="D142">
+        <f ca="1">VLOOKUP($B142,product!$A$2:$E$60,3)</f>
+        <v>51600</v>
+      </c>
+      <c r="E142">
+        <f t="shared" ca="1" si="19"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>리빙</v>
+      </c>
+      <c r="B143">
+        <f t="shared" ca="1" si="17"/>
+        <v>39</v>
+      </c>
+      <c r="C143" t="str">
+        <f ca="1">VLOOKUP($B143,product!$A$2:$E$60,5)</f>
+        <v>모던홈</v>
+      </c>
+      <c r="D143">
+        <f ca="1">VLOOKUP($B143,product!$A$2:$E$60,3)</f>
+        <v>69000</v>
+      </c>
+      <c r="E143">
+        <f t="shared" ca="1" si="19"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>리빙</v>
+      </c>
+      <c r="B144">
+        <f t="shared" ca="1" si="17"/>
+        <v>39</v>
+      </c>
+      <c r="C144" t="str">
+        <f ca="1">VLOOKUP($B144,product!$A$2:$E$60,5)</f>
+        <v>모던홈</v>
+      </c>
+      <c r="D144">
+        <f ca="1">VLOOKUP($B144,product!$A$2:$E$60,3)</f>
+        <v>69000</v>
+      </c>
+      <c r="E144">
+        <f t="shared" ca="1" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>패션</v>
+      </c>
+      <c r="B145">
+        <f t="shared" ca="1" si="17"/>
+        <v>13</v>
+      </c>
+      <c r="C145" t="str">
+        <f ca="1">VLOOKUP($B145,product!$A$2:$E$60,5)</f>
+        <v>노스페이스</v>
+      </c>
+      <c r="D145">
+        <f ca="1">VLOOKUP($B145,product!$A$2:$E$60,3)</f>
+        <v>400000</v>
+      </c>
+      <c r="E145">
+        <f t="shared" ca="1" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>식품</v>
+      </c>
+      <c r="B146">
+        <f t="shared" ca="1" si="17"/>
+        <v>47</v>
+      </c>
+      <c r="C146" t="str">
+        <f ca="1">VLOOKUP($B146,product!$A$2:$E$60,5)</f>
+        <v>(주)해맑음푸드</v>
+      </c>
+      <c r="D146">
+        <f ca="1">VLOOKUP($B146,product!$A$2:$E$60,3)</f>
+        <v>14900</v>
+      </c>
+      <c r="E146">
+        <f t="shared" ca="1" si="19"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>리빙</v>
+      </c>
+      <c r="B147">
+        <f t="shared" ca="1" si="17"/>
+        <v>35</v>
+      </c>
+      <c r="C147" t="str">
+        <f ca="1">VLOOKUP($B147,product!$A$2:$E$60,5)</f>
+        <v>모던홈</v>
+      </c>
+      <c r="D147">
+        <f ca="1">VLOOKUP($B147,product!$A$2:$E$60,3)</f>
+        <v>150000</v>
+      </c>
+      <c r="E147">
+        <f t="shared" ca="1" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>패션</v>
+      </c>
+      <c r="B148">
+        <f t="shared" ca="1" si="17"/>
+        <v>18</v>
+      </c>
+      <c r="C148" t="str">
+        <f ca="1">VLOOKUP($B148,product!$A$2:$E$60,5)</f>
+        <v>아구찜</v>
+      </c>
+      <c r="D148">
+        <f ca="1">VLOOKUP($B148,product!$A$2:$E$60,3)</f>
+        <v>1610000</v>
+      </c>
+      <c r="E148">
+        <f t="shared" ca="1" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>리빙</v>
+      </c>
+      <c r="B149">
+        <f t="shared" ca="1" si="17"/>
+        <v>40</v>
+      </c>
+      <c r="C149" t="str">
+        <f ca="1">VLOOKUP($B149,product!$A$2:$E$60,5)</f>
+        <v>팔도</v>
+      </c>
+      <c r="D149">
+        <f ca="1">VLOOKUP($B149,product!$A$2:$E$60,3)</f>
+        <v>14400</v>
+      </c>
+      <c r="E149">
+        <f t="shared" ca="1" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>도서</v>
+      </c>
+      <c r="B150">
+        <f t="shared" ca="1" si="17"/>
+        <v>10</v>
+      </c>
+      <c r="C150" t="str">
+        <f ca="1">VLOOKUP($B150,product!$A$2:$E$60,5)</f>
+        <v>열린책들</v>
+      </c>
+      <c r="D150">
+        <f ca="1">VLOOKUP($B150,product!$A$2:$E$60,3)</f>
+        <v>12800</v>
+      </c>
+      <c r="E150">
+        <f t="shared" ca="1" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>도서</v>
+      </c>
+      <c r="B151">
+        <f t="shared" ca="1" si="17"/>
+        <v>8</v>
+      </c>
+      <c r="C151" t="str">
+        <f ca="1">VLOOKUP($B151,product!$A$2:$E$60,5)</f>
+        <v>열린책들</v>
+      </c>
+      <c r="D151">
+        <f ca="1">VLOOKUP($B151,product!$A$2:$E$60,3)</f>
+        <v>22000</v>
+      </c>
+      <c r="E151">
+        <f t="shared" ca="1" si="19"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>공구</v>
+      </c>
+      <c r="B152">
+        <f t="shared" ca="1" si="17"/>
+        <v>28</v>
+      </c>
+      <c r="C152" t="str">
+        <f ca="1">VLOOKUP($B152,product!$A$2:$E$60,5)</f>
+        <v>Bosch</v>
+      </c>
+      <c r="D152">
+        <f ca="1">VLOOKUP($B152,product!$A$2:$E$60,3)</f>
+        <v>128400</v>
+      </c>
+      <c r="E152">
+        <f t="shared" ca="1" si="19"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>패션</v>
+      </c>
+      <c r="B153">
+        <f t="shared" ca="1" si="17"/>
+        <v>14</v>
+      </c>
+      <c r="C153" t="str">
+        <f ca="1">VLOOKUP($B153,product!$A$2:$E$60,5)</f>
+        <v>노스페이스</v>
+      </c>
+      <c r="D153">
+        <f ca="1">VLOOKUP($B153,product!$A$2:$E$60,3)</f>
+        <v>62300</v>
+      </c>
+      <c r="E153">
+        <f t="shared" ca="1" si="19"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>도서</v>
+      </c>
+      <c r="B154">
+        <f t="shared" ca="1" si="17"/>
+        <v>7</v>
+      </c>
+      <c r="C154" t="str">
+        <f ca="1">VLOOKUP($B154,product!$A$2:$E$60,5)</f>
+        <v>열린책들</v>
+      </c>
+      <c r="D154">
+        <f ca="1">VLOOKUP($B154,product!$A$2:$E$60,3)</f>
+        <v>13800</v>
+      </c>
+      <c r="E154">
+        <f t="shared" ca="1" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>식품</v>
+      </c>
+      <c r="B155">
+        <f t="shared" ca="1" si="17"/>
+        <v>47</v>
+      </c>
+      <c r="C155" t="str">
+        <f ca="1">VLOOKUP($B155,product!$A$2:$E$60,5)</f>
+        <v>(주)해맑음푸드</v>
+      </c>
+      <c r="D155">
+        <f ca="1">VLOOKUP($B155,product!$A$2:$E$60,3)</f>
+        <v>14900</v>
+      </c>
+      <c r="E155">
+        <f t="shared" ca="1" si="19"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>공구</v>
+      </c>
+      <c r="B156">
+        <f t="shared" ca="1" si="17"/>
+        <v>25</v>
+      </c>
+      <c r="C156" t="str">
+        <f ca="1">VLOOKUP($B156,product!$A$2:$E$60,5)</f>
+        <v>Bosch</v>
+      </c>
+      <c r="D156">
+        <f ca="1">VLOOKUP($B156,product!$A$2:$E$60,3)</f>
+        <v>36000</v>
+      </c>
+      <c r="E156">
+        <f t="shared" ca="1" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>패션</v>
+      </c>
+      <c r="B157">
+        <f t="shared" ca="1" si="17"/>
+        <v>17</v>
+      </c>
+      <c r="C157" t="str">
+        <f ca="1">VLOOKUP($B157,product!$A$2:$E$60,5)</f>
+        <v>아구찜</v>
+      </c>
+      <c r="D157">
+        <f ca="1">VLOOKUP($B157,product!$A$2:$E$60,3)</f>
+        <v>4900000</v>
+      </c>
+      <c r="E157">
+        <f t="shared" ca="1" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>공구</v>
+      </c>
+      <c r="B158">
+        <f t="shared" ca="1" si="17"/>
+        <v>23</v>
+      </c>
+      <c r="C158" t="str">
+        <f ca="1">VLOOKUP($B158,product!$A$2:$E$60,5)</f>
+        <v>Bosch</v>
+      </c>
+      <c r="D158">
+        <f ca="1">VLOOKUP($B158,product!$A$2:$E$60,3)</f>
+        <v>194200</v>
+      </c>
+      <c r="E158">
+        <f t="shared" ca="1" si="19"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>공구</v>
+      </c>
+      <c r="B159">
+        <f t="shared" ca="1" si="17"/>
+        <v>26</v>
+      </c>
+      <c r="C159" t="str">
+        <f ca="1">VLOOKUP($B159,product!$A$2:$E$60,5)</f>
+        <v>Bosch</v>
+      </c>
+      <c r="D159">
+        <f ca="1">VLOOKUP($B159,product!$A$2:$E$60,3)</f>
+        <v>199000</v>
+      </c>
+      <c r="E159">
+        <f t="shared" ca="1" si="19"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>패션</v>
+      </c>
+      <c r="B160">
+        <f t="shared" ca="1" si="17"/>
+        <v>15</v>
+      </c>
+      <c r="C160" t="str">
+        <f ca="1">VLOOKUP($B160,product!$A$2:$E$60,5)</f>
+        <v>디스이즈네버댓</v>
+      </c>
+      <c r="D160">
+        <f ca="1">VLOOKUP($B160,product!$A$2:$E$60,3)</f>
+        <v>118300</v>
+      </c>
+      <c r="E160">
+        <f t="shared" ca="1" si="19"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A161" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>리빙</v>
+      </c>
+      <c r="B161">
+        <f t="shared" ca="1" si="17"/>
+        <v>40</v>
+      </c>
+      <c r="C161" t="str">
+        <f ca="1">VLOOKUP($B161,product!$A$2:$E$60,5)</f>
+        <v>팔도</v>
+      </c>
+      <c r="D161">
+        <f ca="1">VLOOKUP($B161,product!$A$2:$E$60,3)</f>
+        <v>14400</v>
+      </c>
+      <c r="E161">
+        <f t="shared" ca="1" si="19"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A162" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>도서</v>
+      </c>
+      <c r="B162">
+        <f t="shared" ca="1" si="17"/>
+        <v>10</v>
+      </c>
+      <c r="C162" t="str">
+        <f ca="1">VLOOKUP($B162,product!$A$2:$E$60,5)</f>
+        <v>열린책들</v>
+      </c>
+      <c r="D162">
+        <f ca="1">VLOOKUP($B162,product!$A$2:$E$60,3)</f>
+        <v>12800</v>
+      </c>
+      <c r="E162">
+        <f t="shared" ca="1" si="19"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A163" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>리빙</v>
+      </c>
+      <c r="B163">
+        <f t="shared" ca="1" si="17"/>
+        <v>40</v>
+      </c>
+      <c r="C163" t="str">
+        <f ca="1">VLOOKUP($B163,product!$A$2:$E$60,5)</f>
+        <v>팔도</v>
+      </c>
+      <c r="D163">
+        <f ca="1">VLOOKUP($B163,product!$A$2:$E$60,3)</f>
+        <v>14400</v>
+      </c>
+      <c r="E163">
+        <f t="shared" ca="1" si="19"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A164" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>리빙</v>
+      </c>
+      <c r="B164">
+        <f t="shared" ca="1" si="17"/>
+        <v>40</v>
+      </c>
+      <c r="C164" t="str">
+        <f ca="1">VLOOKUP($B164,product!$A$2:$E$60,5)</f>
+        <v>팔도</v>
+      </c>
+      <c r="D164">
+        <f ca="1">VLOOKUP($B164,product!$A$2:$E$60,3)</f>
+        <v>14400</v>
+      </c>
+      <c r="E164">
+        <f t="shared" ca="1" si="19"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A165" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>전자기기</v>
+      </c>
+      <c r="B165">
+        <f t="shared" ca="1" si="17"/>
+        <v>51</v>
+      </c>
+      <c r="C165" t="str">
+        <f ca="1">VLOOKUP($B165,product!$A$2:$E$60,5)</f>
+        <v>삼성전자</v>
+      </c>
+      <c r="D165">
+        <f ca="1">VLOOKUP($B165,product!$A$2:$E$60,3)</f>
+        <v>350000</v>
+      </c>
+      <c r="E165">
+        <f t="shared" ca="1" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A166" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>식품</v>
+      </c>
+      <c r="B166">
+        <f t="shared" ref="B166:B221" ca="1" si="20">IF(A166=$G$2,RANDBETWEEN(1,10),IF(A166=$G$3,RANDBETWEEN(11,20),IF(A166=$G$4,RANDBETWEEN(21,30),IF(A166=$G$5,RANDBETWEEN(31,40),IF(A166=$G$6,RANDBETWEEN(41,50),IF(A166=$G$7,RANDBETWEEN(50,59)))))))</f>
+        <v>42</v>
+      </c>
+      <c r="C166" t="str">
+        <f ca="1">VLOOKUP($B166,product!$A$2:$E$60,5)</f>
+        <v>도드람양돈협동조합</v>
+      </c>
+      <c r="D166">
+        <f ca="1">VLOOKUP($B166,product!$A$2:$E$60,3)</f>
+        <v>28000</v>
+      </c>
+      <c r="E166">
+        <f t="shared" ca="1" si="19"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A167" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>식품</v>
+      </c>
+      <c r="B167">
+        <f t="shared" ca="1" si="20"/>
+        <v>48</v>
+      </c>
+      <c r="C167" t="str">
+        <f ca="1">VLOOKUP($B167,product!$A$2:$E$60,5)</f>
+        <v>농심</v>
+      </c>
+      <c r="D167">
+        <f ca="1">VLOOKUP($B167,product!$A$2:$E$60,3)</f>
+        <v>39600</v>
+      </c>
+      <c r="E167">
+        <f t="shared" ca="1" si="19"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A168" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>공구</v>
+      </c>
+      <c r="B168">
+        <f t="shared" ca="1" si="20"/>
+        <v>21</v>
+      </c>
+      <c r="C168" t="str">
+        <f ca="1">VLOOKUP($B168,product!$A$2:$E$60,5)</f>
+        <v>Bosch</v>
+      </c>
+      <c r="D168">
+        <f ca="1">VLOOKUP($B168,product!$A$2:$E$60,3)</f>
+        <v>98270</v>
+      </c>
+      <c r="E168">
+        <f t="shared" ca="1" si="19"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A169" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>도서</v>
+      </c>
+      <c r="B169">
+        <f t="shared" ca="1" si="20"/>
+        <v>6</v>
+      </c>
+      <c r="C169" t="str">
+        <f ca="1">VLOOKUP($B169,product!$A$2:$E$60,5)</f>
+        <v>열린책들</v>
+      </c>
+      <c r="D169">
+        <f ca="1">VLOOKUP($B169,product!$A$2:$E$60,3)</f>
+        <v>13800</v>
+      </c>
+      <c r="E169">
+        <f t="shared" ca="1" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A170" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>패션</v>
+      </c>
+      <c r="B170">
+        <f t="shared" ca="1" si="20"/>
+        <v>15</v>
+      </c>
+      <c r="C170" t="str">
+        <f ca="1">VLOOKUP($B170,product!$A$2:$E$60,5)</f>
+        <v>디스이즈네버댓</v>
+      </c>
+      <c r="D170">
+        <f ca="1">VLOOKUP($B170,product!$A$2:$E$60,3)</f>
+        <v>118300</v>
+      </c>
+      <c r="E170">
+        <f t="shared" ca="1" si="19"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A171" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>공구</v>
+      </c>
+      <c r="B171">
+        <f t="shared" ca="1" si="20"/>
+        <v>30</v>
+      </c>
+      <c r="C171" t="str">
+        <f ca="1">VLOOKUP($B171,product!$A$2:$E$60,5)</f>
+        <v>Bosch</v>
+      </c>
+      <c r="D171">
+        <f ca="1">VLOOKUP($B171,product!$A$2:$E$60,3)</f>
+        <v>934410</v>
+      </c>
+      <c r="E171">
+        <f t="shared" ca="1" si="19"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A172" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>공구</v>
+      </c>
+      <c r="B172">
+        <f t="shared" ca="1" si="20"/>
+        <v>29</v>
+      </c>
+      <c r="C172" t="str">
+        <f ca="1">VLOOKUP($B172,product!$A$2:$E$60,5)</f>
+        <v>Bosch</v>
+      </c>
+      <c r="D172">
+        <f ca="1">VLOOKUP($B172,product!$A$2:$E$60,3)</f>
+        <v>185780</v>
+      </c>
+      <c r="E172">
+        <f t="shared" ca="1" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A173" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>패션</v>
+      </c>
+      <c r="B173">
+        <f t="shared" ca="1" si="20"/>
+        <v>17</v>
+      </c>
+      <c r="C173" t="str">
+        <f ca="1">VLOOKUP($B173,product!$A$2:$E$60,5)</f>
+        <v>아구찜</v>
+      </c>
+      <c r="D173">
+        <f ca="1">VLOOKUP($B173,product!$A$2:$E$60,3)</f>
+        <v>4900000</v>
+      </c>
+      <c r="E173">
+        <f t="shared" ca="1" si="19"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A174" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>공구</v>
+      </c>
+      <c r="B174">
+        <f t="shared" ca="1" si="20"/>
+        <v>28</v>
+      </c>
+      <c r="C174" t="str">
+        <f ca="1">VLOOKUP($B174,product!$A$2:$E$60,5)</f>
+        <v>Bosch</v>
+      </c>
+      <c r="D174">
+        <f ca="1">VLOOKUP($B174,product!$A$2:$E$60,3)</f>
+        <v>128400</v>
+      </c>
+      <c r="E174">
+        <f t="shared" ca="1" si="19"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A175" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>리빙</v>
+      </c>
+      <c r="B175">
+        <f t="shared" ca="1" si="20"/>
+        <v>34</v>
+      </c>
+      <c r="C175" t="str">
+        <f ca="1">VLOOKUP($B175,product!$A$2:$E$60,5)</f>
+        <v>모던홈</v>
+      </c>
+      <c r="D175">
+        <f ca="1">VLOOKUP($B175,product!$A$2:$E$60,3)</f>
+        <v>75000</v>
+      </c>
+      <c r="E175">
+        <f t="shared" ca="1" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A176" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>패션</v>
+      </c>
+      <c r="B176">
+        <f t="shared" ca="1" si="20"/>
+        <v>19</v>
+      </c>
+      <c r="C176" t="str">
+        <f ca="1">VLOOKUP($B176,product!$A$2:$E$60,5)</f>
+        <v>나이스</v>
+      </c>
+      <c r="D176">
+        <f ca="1">VLOOKUP($B176,product!$A$2:$E$60,3)</f>
+        <v>115000</v>
+      </c>
+      <c r="E176">
+        <f t="shared" ca="1" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A177" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>패션</v>
+      </c>
+      <c r="B177">
+        <f t="shared" ca="1" si="20"/>
+        <v>11</v>
+      </c>
+      <c r="C177" t="str">
+        <f ca="1">VLOOKUP($B177,product!$A$2:$E$60,5)</f>
+        <v>아디오스</v>
+      </c>
+      <c r="D177">
+        <f ca="1">VLOOKUP($B177,product!$A$2:$E$60,3)</f>
+        <v>200000</v>
+      </c>
+      <c r="E177">
+        <f t="shared" ca="1" si="19"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A178" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>전자기기</v>
+      </c>
+      <c r="B178">
+        <f t="shared" ca="1" si="20"/>
+        <v>59</v>
+      </c>
+      <c r="C178" t="str">
+        <f ca="1">VLOOKUP($B178,product!$A$2:$E$60,5)</f>
+        <v>LG전자</v>
+      </c>
+      <c r="D178">
+        <f ca="1">VLOOKUP($B178,product!$A$2:$E$60,3)</f>
         <v>2690000</v>
       </c>
-      <c r="E101">
-        <f t="shared" ca="1" si="14"/>
+      <c r="E178">
+        <f t="shared" ca="1" si="19"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A179" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>패션</v>
+      </c>
+      <c r="B179">
+        <f t="shared" ca="1" si="20"/>
+        <v>13</v>
+      </c>
+      <c r="C179" t="str">
+        <f ca="1">VLOOKUP($B179,product!$A$2:$E$60,5)</f>
+        <v>노스페이스</v>
+      </c>
+      <c r="D179">
+        <f ca="1">VLOOKUP($B179,product!$A$2:$E$60,3)</f>
+        <v>400000</v>
+      </c>
+      <c r="E179">
+        <f t="shared" ca="1" si="19"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A180" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>도서</v>
+      </c>
+      <c r="B180">
+        <f t="shared" ca="1" si="20"/>
+        <v>7</v>
+      </c>
+      <c r="C180" t="str">
+        <f ca="1">VLOOKUP($B180,product!$A$2:$E$60,5)</f>
+        <v>열린책들</v>
+      </c>
+      <c r="D180">
+        <f ca="1">VLOOKUP($B180,product!$A$2:$E$60,3)</f>
+        <v>13800</v>
+      </c>
+      <c r="E180">
+        <f t="shared" ca="1" si="19"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A181" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>식품</v>
+      </c>
+      <c r="B181">
+        <f t="shared" ca="1" si="20"/>
+        <v>45</v>
+      </c>
+      <c r="C181" t="str">
+        <f ca="1">VLOOKUP($B181,product!$A$2:$E$60,5)</f>
+        <v>(주)횡성명품한우유통사업단</v>
+      </c>
+      <c r="D181">
+        <f ca="1">VLOOKUP($B181,product!$A$2:$E$60,3)</f>
+        <v>39500</v>
+      </c>
+      <c r="E181">
+        <f t="shared" ca="1" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A182" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>패션</v>
+      </c>
+      <c r="B182">
+        <f t="shared" ca="1" si="20"/>
+        <v>20</v>
+      </c>
+      <c r="C182" t="str">
+        <f ca="1">VLOOKUP($B182,product!$A$2:$E$60,5)</f>
+        <v>나이스</v>
+      </c>
+      <c r="D182">
+        <f ca="1">VLOOKUP($B182,product!$A$2:$E$60,3)</f>
+        <v>239000</v>
+      </c>
+      <c r="E182">
+        <f t="shared" ca="1" si="19"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A183" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>도서</v>
+      </c>
+      <c r="B183">
+        <f t="shared" ca="1" si="20"/>
+        <v>5</v>
+      </c>
+      <c r="C183" t="str">
+        <f ca="1">VLOOKUP($B183,product!$A$2:$E$60,5)</f>
+        <v>길벗</v>
+      </c>
+      <c r="D183">
+        <f ca="1">VLOOKUP($B183,product!$A$2:$E$60,3)</f>
+        <v>29800</v>
+      </c>
+      <c r="E183">
+        <f t="shared" ca="1" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A184" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>공구</v>
+      </c>
+      <c r="B184">
+        <f t="shared" ca="1" si="20"/>
+        <v>21</v>
+      </c>
+      <c r="C184" t="str">
+        <f ca="1">VLOOKUP($B184,product!$A$2:$E$60,5)</f>
+        <v>Bosch</v>
+      </c>
+      <c r="D184">
+        <f ca="1">VLOOKUP($B184,product!$A$2:$E$60,3)</f>
+        <v>98270</v>
+      </c>
+      <c r="E184">
+        <f t="shared" ca="1" si="19"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A185" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>식품</v>
+      </c>
+      <c r="B185">
+        <f t="shared" ca="1" si="20"/>
+        <v>49</v>
+      </c>
+      <c r="C185" t="str">
+        <f ca="1">VLOOKUP($B185,product!$A$2:$E$60,5)</f>
+        <v>풀무원</v>
+      </c>
+      <c r="D185">
+        <f ca="1">VLOOKUP($B185,product!$A$2:$E$60,3)</f>
+        <v>7800</v>
+      </c>
+      <c r="E185">
+        <f t="shared" ca="1" si="19"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A186" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>식품</v>
+      </c>
+      <c r="B186">
+        <f t="shared" ca="1" si="20"/>
+        <v>47</v>
+      </c>
+      <c r="C186" t="str">
+        <f ca="1">VLOOKUP($B186,product!$A$2:$E$60,5)</f>
+        <v>(주)해맑음푸드</v>
+      </c>
+      <c r="D186">
+        <f ca="1">VLOOKUP($B186,product!$A$2:$E$60,3)</f>
+        <v>14900</v>
+      </c>
+      <c r="E186">
+        <f t="shared" ca="1" si="19"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A187" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>식품</v>
+      </c>
+      <c r="B187">
+        <f t="shared" ca="1" si="20"/>
+        <v>47</v>
+      </c>
+      <c r="C187" t="str">
+        <f ca="1">VLOOKUP($B187,product!$A$2:$E$60,5)</f>
+        <v>(주)해맑음푸드</v>
+      </c>
+      <c r="D187">
+        <f ca="1">VLOOKUP($B187,product!$A$2:$E$60,3)</f>
+        <v>14900</v>
+      </c>
+      <c r="E187">
+        <f t="shared" ca="1" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A188" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>공구</v>
+      </c>
+      <c r="B188">
+        <f t="shared" ca="1" si="20"/>
+        <v>24</v>
+      </c>
+      <c r="C188" t="str">
+        <f ca="1">VLOOKUP($B188,product!$A$2:$E$60,5)</f>
+        <v>Bosch</v>
+      </c>
+      <c r="D188">
+        <f ca="1">VLOOKUP($B188,product!$A$2:$E$60,3)</f>
+        <v>52030</v>
+      </c>
+      <c r="E188">
+        <f t="shared" ca="1" si="19"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A189" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>도서</v>
+      </c>
+      <c r="B189">
+        <f t="shared" ca="1" si="20"/>
+        <v>9</v>
+      </c>
+      <c r="C189" t="str">
+        <f ca="1">VLOOKUP($B189,product!$A$2:$E$60,5)</f>
+        <v>열린책들</v>
+      </c>
+      <c r="D189">
+        <f ca="1">VLOOKUP($B189,product!$A$2:$E$60,3)</f>
+        <v>22000</v>
+      </c>
+      <c r="E189">
+        <f t="shared" ca="1" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A190" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>패션</v>
+      </c>
+      <c r="B190">
+        <f t="shared" ca="1" si="20"/>
+        <v>20</v>
+      </c>
+      <c r="C190" t="str">
+        <f ca="1">VLOOKUP($B190,product!$A$2:$E$60,5)</f>
+        <v>나이스</v>
+      </c>
+      <c r="D190">
+        <f ca="1">VLOOKUP($B190,product!$A$2:$E$60,3)</f>
+        <v>239000</v>
+      </c>
+      <c r="E190">
+        <f t="shared" ca="1" si="19"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A191" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>공구</v>
+      </c>
+      <c r="B191">
+        <f t="shared" ca="1" si="20"/>
+        <v>29</v>
+      </c>
+      <c r="C191" t="str">
+        <f ca="1">VLOOKUP($B191,product!$A$2:$E$60,5)</f>
+        <v>Bosch</v>
+      </c>
+      <c r="D191">
+        <f ca="1">VLOOKUP($B191,product!$A$2:$E$60,3)</f>
+        <v>185780</v>
+      </c>
+      <c r="E191">
+        <f t="shared" ca="1" si="19"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A192" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>도서</v>
+      </c>
+      <c r="B192">
+        <f t="shared" ca="1" si="20"/>
+        <v>8</v>
+      </c>
+      <c r="C192" t="str">
+        <f ca="1">VLOOKUP($B192,product!$A$2:$E$60,5)</f>
+        <v>열린책들</v>
+      </c>
+      <c r="D192">
+        <f ca="1">VLOOKUP($B192,product!$A$2:$E$60,3)</f>
+        <v>22000</v>
+      </c>
+      <c r="E192">
+        <f t="shared" ca="1" si="19"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A193" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>패션</v>
+      </c>
+      <c r="B193">
+        <f t="shared" ca="1" si="20"/>
+        <v>12</v>
+      </c>
+      <c r="C193" t="str">
+        <f ca="1">VLOOKUP($B193,product!$A$2:$E$60,5)</f>
+        <v>아디오스</v>
+      </c>
+      <c r="D193">
+        <f ca="1">VLOOKUP($B193,product!$A$2:$E$60,3)</f>
+        <v>139000</v>
+      </c>
+      <c r="E193">
+        <f t="shared" ca="1" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A194" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>패션</v>
+      </c>
+      <c r="B194">
+        <f t="shared" ca="1" si="20"/>
+        <v>13</v>
+      </c>
+      <c r="C194" t="str">
+        <f ca="1">VLOOKUP($B194,product!$A$2:$E$60,5)</f>
+        <v>노스페이스</v>
+      </c>
+      <c r="D194">
+        <f ca="1">VLOOKUP($B194,product!$A$2:$E$60,3)</f>
+        <v>400000</v>
+      </c>
+      <c r="E194">
+        <f t="shared" ca="1" si="19"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A195" t="str">
+        <f t="shared" ref="A195:A221" ca="1" si="21">INDEX($G$2:$G$7,MATCH(RAND(),$I$2:$I$7))</f>
+        <v>패션</v>
+      </c>
+      <c r="B195">
+        <f t="shared" ca="1" si="20"/>
+        <v>13</v>
+      </c>
+      <c r="C195" t="str">
+        <f ca="1">VLOOKUP($B195,product!$A$2:$E$60,5)</f>
+        <v>노스페이스</v>
+      </c>
+      <c r="D195">
+        <f ca="1">VLOOKUP($B195,product!$A$2:$E$60,3)</f>
+        <v>400000</v>
+      </c>
+      <c r="E195">
+        <f t="shared" ref="E195:E221" ca="1" si="22">INDEX($G$10:$G$12,MATCH(RAND(),$I$10:$I$12))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A196" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v>도서</v>
+      </c>
+      <c r="B196">
+        <f t="shared" ca="1" si="20"/>
+        <v>10</v>
+      </c>
+      <c r="C196" t="str">
+        <f ca="1">VLOOKUP($B196,product!$A$2:$E$60,5)</f>
+        <v>열린책들</v>
+      </c>
+      <c r="D196">
+        <f ca="1">VLOOKUP($B196,product!$A$2:$E$60,3)</f>
+        <v>12800</v>
+      </c>
+      <c r="E196">
+        <f t="shared" ca="1" si="22"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A197" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v>리빙</v>
+      </c>
+      <c r="B197">
+        <f t="shared" ca="1" si="20"/>
+        <v>32</v>
+      </c>
+      <c r="C197" t="str">
+        <f ca="1">VLOOKUP($B197,product!$A$2:$E$60,5)</f>
+        <v>모던홈</v>
+      </c>
+      <c r="D197">
+        <f ca="1">VLOOKUP($B197,product!$A$2:$E$60,3)</f>
+        <v>120000</v>
+      </c>
+      <c r="E197">
+        <f t="shared" ca="1" si="22"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A198" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v>전자기기</v>
+      </c>
+      <c r="B198">
+        <f t="shared" ca="1" si="20"/>
+        <v>58</v>
+      </c>
+      <c r="C198" t="str">
+        <f ca="1">VLOOKUP($B198,product!$A$2:$E$60,5)</f>
+        <v>엠지텍</v>
+      </c>
+      <c r="D198">
+        <f ca="1">VLOOKUP($B198,product!$A$2:$E$60,3)</f>
+        <v>648000</v>
+      </c>
+      <c r="E198">
+        <f t="shared" ca="1" si="22"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A199" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v>패션</v>
+      </c>
+      <c r="B199">
+        <f t="shared" ca="1" si="20"/>
+        <v>20</v>
+      </c>
+      <c r="C199" t="str">
+        <f ca="1">VLOOKUP($B199,product!$A$2:$E$60,5)</f>
+        <v>나이스</v>
+      </c>
+      <c r="D199">
+        <f ca="1">VLOOKUP($B199,product!$A$2:$E$60,3)</f>
+        <v>239000</v>
+      </c>
+      <c r="E199">
+        <f t="shared" ca="1" si="22"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A200" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v>식품</v>
+      </c>
+      <c r="B200">
+        <f t="shared" ca="1" si="20"/>
+        <v>41</v>
+      </c>
+      <c r="C200" t="str">
+        <f ca="1">VLOOKUP($B200,product!$A$2:$E$60,5)</f>
+        <v>(주)동원엔터프라이즈</v>
+      </c>
+      <c r="D200">
+        <f ca="1">VLOOKUP($B200,product!$A$2:$E$60,3)</f>
+        <v>51600</v>
+      </c>
+      <c r="E200">
+        <f t="shared" ca="1" si="22"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A201" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v>도서</v>
+      </c>
+      <c r="B201">
+        <f t="shared" ca="1" si="20"/>
+        <v>6</v>
+      </c>
+      <c r="C201" t="str">
+        <f ca="1">VLOOKUP($B201,product!$A$2:$E$60,5)</f>
+        <v>열린책들</v>
+      </c>
+      <c r="D201">
+        <f ca="1">VLOOKUP($B201,product!$A$2:$E$60,3)</f>
+        <v>13800</v>
+      </c>
+      <c r="E201">
+        <f t="shared" ca="1" si="22"/>
         <v>3</v>
       </c>
     </row>
@@ -4176,7 +6385,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EC78707-9F5A-43DB-AE27-1F286FCEE0A3}">
   <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
